--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-34993.61287688344</v>
+        <v>-41742.62192233402</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31841608.1962624</v>
+        <v>31841608.19626241</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>402.9335988151229</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>37.46420705643703</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,7 +752,7 @@
         <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>84.53123883647795</v>
+        <v>60.81867508048208</v>
       </c>
       <c r="H3" t="n">
         <v>41.31829566194965</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>39.10831942010553</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
         <v>128.8768572327044</v>
@@ -819,16 +819,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>158.8031239122324</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>2.793490579321767</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="C5" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="D5" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="E5" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>368.3379045390506</v>
       </c>
       <c r="G5" t="n">
-        <v>367.9252830599195</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31829566194965</v>
+        <v>17.60573190595379</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T6" t="n">
-        <v>105.164293476709</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U6" t="n">
         <v>174.5731815300314</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>65.53442148381211</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1116,13 +1116,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>128.6429487768386</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>191.5160010568009</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>243.2419822488749</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1229,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
-        <v>17.60573190595423</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T9" t="n">
-        <v>128.8768572327044</v>
+        <v>105.1642934767085</v>
       </c>
       <c r="U9" t="n">
         <v>174.5731815300314</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>47.58748982387848</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>186.7847574478633</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="D11" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>371.5724976088932</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>154.9120433266914</v>
       </c>
     </row>
     <row r="12">
@@ -1463,7 +1463,7 @@
         <v>82.55</v>
       </c>
       <c r="G12" t="n">
-        <v>83.81976830925504</v>
+        <v>83.81976830925467</v>
       </c>
       <c r="H12" t="n">
         <v>34.44698820166514</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>49.60563018141206</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T12" t="n">
         <v>126.0091317304331</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T13" t="n">
-        <v>240.8720855447433</v>
+        <v>240.355786946285</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>172.8955642342169</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.5237009191198</v>
@@ -1669,10 +1669,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>52.01429422411404</v>
+        <v>319.8085673337388</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>155.8660054478352</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T16" t="n">
         <v>240.8720855447433</v>
@@ -1824,16 +1824,16 @@
         <v>275.6161358490523</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>31.86263717323654</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>418.1856318563247</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>29.9604488566288</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>77.79884961081237</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1912,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>83.81976830925504</v>
       </c>
       <c r="H18" t="n">
-        <v>34.44698820166455</v>
+        <v>34.44698820166514</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>160.6264439561329</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>105.9503736938766</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D20" t="n">
-        <v>418.1856318563247</v>
+        <v>185.104588796355</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>317.9541921376111</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T20" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>11.12285349673281</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T22" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>162.8225906357924</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2323,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>407.6863800081483</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>74.1458072303878</v>
       </c>
       <c r="G23" t="n">
         <v>396.054118850051</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>110.1699129227278</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>133.1999654356588</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T25" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>179.5033759652861</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>74.1458072303878</v>
       </c>
       <c r="G26" t="n">
         <v>396.054118850051</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>62.83973818604238</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2727,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.6012844548725</v>
       </c>
       <c r="U28" t="n">
-        <v>233.2543244455542</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>176.9554451830625</v>
       </c>
       <c r="F29" t="n">
-        <v>14.95095593957423</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>212.0456433386444</v>
       </c>
       <c r="U29" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.3388892342509</v>
+        <v>143.8102279848487</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T31" t="n">
         <v>240.8720855447433</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>46.86358008704009</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>346.7665197335595</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>62.83973818604238</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>151.0139874839441</v>
       </c>
       <c r="U34" t="n">
-        <v>72.62244494605116</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3252,10 +3252,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>330.6695081495072</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>342.0137385405339</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>212.0456433386444</v>
       </c>
       <c r="U35" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>150.8632762443121</v>
+        <v>21.65079193310468</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>43.94281824961049</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>180.2781494028075</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>230.4622241299822</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U40" t="n">
         <v>275.6161358490523</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>67.36893486905058</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>81.44736203369489</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T41" t="n">
         <v>212.0456433386444</v>
@@ -3799,16 +3799,16 @@
         <v>256.5237009191198</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>74.1458072303878</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3906,19 +3906,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T43" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>16.16448673103504</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.1108283213891</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H44" t="n">
         <v>272.6207125031721</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.51403670113841</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T44" t="n">
         <v>212.0456433386444</v>
@@ -4039,13 +4039,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>74.14580723038735</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>69.39302603736205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4146,7 +4146,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>132.1639911596556</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.3388892342509</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>16.16448673103459</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.45485054850599</v>
+        <v>761.8254698723663</v>
       </c>
       <c r="C2" t="n">
-        <v>33.45485054850599</v>
+        <v>723.9828364820258</v>
       </c>
       <c r="D2" t="n">
-        <v>33.45485054850599</v>
+        <v>723.9828364820258</v>
       </c>
       <c r="E2" t="n">
-        <v>33.45485054850599</v>
+        <v>723.9828364820258</v>
       </c>
       <c r="F2" t="n">
-        <v>33.45485054850599</v>
+        <v>723.9828364820258</v>
       </c>
       <c r="G2" t="n">
-        <v>33.45485054850599</v>
+        <v>322.5850051052897</v>
       </c>
       <c r="H2" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I2" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J2" t="n">
-        <v>447.4586260862676</v>
+        <v>447.4586260862674</v>
       </c>
       <c r="K2" t="n">
-        <v>447.4586260862676</v>
+        <v>675.5809115967193</v>
       </c>
       <c r="L2" t="n">
-        <v>447.4586260862676</v>
+        <v>675.5809115967193</v>
       </c>
       <c r="M2" t="n">
-        <v>447.4586260862676</v>
+        <v>675.5809115967193</v>
       </c>
       <c r="N2" t="n">
-        <v>447.4586260862676</v>
+        <v>675.5809115967193</v>
       </c>
       <c r="O2" t="n">
-        <v>675.5809115967197</v>
+        <v>675.5809115967193</v>
       </c>
       <c r="P2" t="n">
         <v>1089.584687134481</v>
       </c>
       <c r="Q2" t="n">
-        <v>1503.588462672243</v>
+        <v>1503.588462672242</v>
       </c>
       <c r="R2" t="n">
         <v>1672.742527425299</v>
       </c>
       <c r="S2" t="n">
-        <v>1672.742527425299</v>
+        <v>1589.090653609136</v>
       </c>
       <c r="T2" t="n">
-        <v>1672.742527425299</v>
+        <v>1589.090653609136</v>
       </c>
       <c r="U2" t="n">
-        <v>1672.742527425299</v>
+        <v>1589.090653609136</v>
       </c>
       <c r="V2" t="n">
-        <v>1672.742527425299</v>
+        <v>1589.090653609136</v>
       </c>
       <c r="W2" t="n">
-        <v>1267.887072836333</v>
+        <v>1184.235199020169</v>
       </c>
       <c r="X2" t="n">
-        <v>848.7446094156434</v>
+        <v>1184.235199020169</v>
       </c>
       <c r="Y2" t="n">
-        <v>440.4584857152968</v>
+        <v>1184.235199020169</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>539.6265955397988</v>
+        <v>515.6745109377828</v>
       </c>
       <c r="C3" t="n">
-        <v>433.1701343764411</v>
+        <v>409.218049774425</v>
       </c>
       <c r="D3" t="n">
-        <v>338.0798455229943</v>
+        <v>314.1277609209783</v>
       </c>
       <c r="E3" t="n">
-        <v>243.959430849948</v>
+        <v>220.007346247932</v>
       </c>
       <c r="F3" t="n">
-        <v>160.5755924661096</v>
+        <v>136.6235078640936</v>
       </c>
       <c r="G3" t="n">
         <v>75.19050273229351</v>
       </c>
       <c r="H3" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I3" t="n">
         <v>59.51852370896358</v>
@@ -4412,49 +4412,49 @@
         <v>384.0768486751759</v>
       </c>
       <c r="K3" t="n">
-        <v>798.0806242129374</v>
+        <v>798.0806242129373</v>
       </c>
       <c r="L3" t="n">
-        <v>1141.565973793198</v>
+        <v>798.0806242129373</v>
       </c>
       <c r="M3" t="n">
-        <v>1141.565973793198</v>
+        <v>798.0806242129373</v>
       </c>
       <c r="N3" t="n">
-        <v>1141.565973793198</v>
+        <v>798.0806242129373</v>
       </c>
       <c r="O3" t="n">
-        <v>1141.565973793198</v>
+        <v>798.0806242129373</v>
       </c>
       <c r="P3" t="n">
         <v>1141.565973793198</v>
       </c>
       <c r="Q3" t="n">
-        <v>1555.56974933096</v>
+        <v>1555.569749330959</v>
       </c>
       <c r="R3" t="n">
         <v>1672.742527425299</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.239174475698</v>
+        <v>1609.287089873682</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.0605308063</v>
+        <v>1479.108446204284</v>
       </c>
       <c r="U3" t="n">
-        <v>1326.723983806268</v>
+        <v>1302.771899204252</v>
       </c>
       <c r="V3" t="n">
-        <v>1127.606465868267</v>
+        <v>1103.654381266251</v>
       </c>
       <c r="W3" t="n">
-        <v>942.2837116014612</v>
+        <v>918.3316269994452</v>
       </c>
       <c r="X3" t="n">
-        <v>787.4162758403412</v>
+        <v>763.4641912383252</v>
       </c>
       <c r="Y3" t="n">
-        <v>660.9304966195619</v>
+        <v>636.9784120175459</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>676.0625497414894</v>
+        <v>600.1699605744036</v>
       </c>
       <c r="C4" t="n">
-        <v>676.0625497414894</v>
+        <v>427.6082490576285</v>
       </c>
       <c r="D4" t="n">
-        <v>676.0625497414894</v>
+        <v>427.6082490576285</v>
       </c>
       <c r="E4" t="n">
-        <v>515.6553538705476</v>
+        <v>427.6082490576285</v>
       </c>
       <c r="F4" t="n">
-        <v>338.9482998323038</v>
+        <v>427.6082490576285</v>
       </c>
       <c r="G4" t="n">
-        <v>173.3570248581315</v>
+        <v>262.0169740834561</v>
       </c>
       <c r="H4" t="n">
-        <v>33.45485054850599</v>
+        <v>122.1147997738306</v>
       </c>
       <c r="I4" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J4" t="n">
-        <v>120.0345357131959</v>
+        <v>120.0345357131958</v>
       </c>
       <c r="K4" t="n">
         <v>394.7929902843314</v>
       </c>
       <c r="L4" t="n">
-        <v>394.7929902843314</v>
+        <v>808.7967658220929</v>
       </c>
       <c r="M4" t="n">
-        <v>808.796765822093</v>
+        <v>808.7967658220929</v>
       </c>
       <c r="N4" t="n">
-        <v>1222.800541359854</v>
+        <v>808.7967658220929</v>
       </c>
       <c r="O4" t="n">
-        <v>1222.800541359854</v>
+        <v>1157.042858590625</v>
       </c>
       <c r="P4" t="n">
         <v>1504.549752560967</v>
@@ -4512,28 +4512,28 @@
         <v>1672.742527425299</v>
       </c>
       <c r="R4" t="n">
-        <v>1672.742527425299</v>
+        <v>1669.920819769418</v>
       </c>
       <c r="S4" t="n">
-        <v>1672.742527425299</v>
+        <v>1510.679451067415</v>
       </c>
       <c r="T4" t="n">
-        <v>1426.863081003755</v>
+        <v>1264.80000464587</v>
       </c>
       <c r="U4" t="n">
-        <v>1426.863081003755</v>
+        <v>1264.80000464587</v>
       </c>
       <c r="V4" t="n">
-        <v>1139.907572874185</v>
+        <v>1264.80000464587</v>
       </c>
       <c r="W4" t="n">
-        <v>867.8811684604766</v>
+        <v>1264.80000464587</v>
       </c>
       <c r="X4" t="n">
-        <v>867.8811684604766</v>
+        <v>1019.408249979283</v>
       </c>
       <c r="Y4" t="n">
-        <v>867.8811684604766</v>
+        <v>791.9885792933908</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1672.742527425299</v>
+        <v>1250.332798277496</v>
       </c>
       <c r="C5" t="n">
-        <v>1250.332798277497</v>
+        <v>827.9230691296932</v>
       </c>
       <c r="D5" t="n">
-        <v>827.9230691296937</v>
+        <v>405.5133399818904</v>
       </c>
       <c r="E5" t="n">
-        <v>405.5133399818907</v>
+        <v>405.5133399818904</v>
       </c>
       <c r="F5" t="n">
-        <v>405.5133399818907</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G5" t="n">
-        <v>33.87163992136598</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H5" t="n">
-        <v>33.87163992136598</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I5" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J5" t="n">
-        <v>33.45485054850599</v>
+        <v>447.4586260862674</v>
       </c>
       <c r="K5" t="n">
-        <v>33.45485054850599</v>
+        <v>861.4624016240289</v>
       </c>
       <c r="L5" t="n">
-        <v>261.5771360589582</v>
+        <v>1089.584687134481</v>
       </c>
       <c r="M5" t="n">
-        <v>261.5771360589582</v>
+        <v>1089.584687134481</v>
       </c>
       <c r="N5" t="n">
-        <v>261.5771360589582</v>
+        <v>1089.584687134481</v>
       </c>
       <c r="O5" t="n">
-        <v>675.5809115967197</v>
+        <v>1089.584687134481</v>
       </c>
       <c r="P5" t="n">
-        <v>1089.584687134481</v>
+        <v>1503.588462672242</v>
       </c>
       <c r="Q5" t="n">
-        <v>1503.588462672243</v>
+        <v>1503.588462672242</v>
       </c>
       <c r="R5" t="n">
         <v>1672.742527425299</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>539.6265955397988</v>
+        <v>515.6745109377828</v>
       </c>
       <c r="C6" t="n">
-        <v>433.1701343764411</v>
+        <v>409.218049774425</v>
       </c>
       <c r="D6" t="n">
-        <v>338.0798455229943</v>
+        <v>314.1277609209783</v>
       </c>
       <c r="E6" t="n">
-        <v>243.959430849948</v>
+        <v>220.007346247932</v>
       </c>
       <c r="F6" t="n">
-        <v>160.5755924661096</v>
+        <v>136.6235078640936</v>
       </c>
       <c r="G6" t="n">
-        <v>75.19050273229351</v>
+        <v>51.23841813027748</v>
       </c>
       <c r="H6" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I6" t="n">
         <v>59.51852370896358</v>
@@ -4649,7 +4649,7 @@
         <v>384.0768486751759</v>
       </c>
       <c r="K6" t="n">
-        <v>798.0806242129374</v>
+        <v>798.0806242129373</v>
       </c>
       <c r="L6" t="n">
         <v>1141.565973793198</v>
@@ -4667,7 +4667,7 @@
         <v>1141.565973793198</v>
       </c>
       <c r="Q6" t="n">
-        <v>1555.56974933096</v>
+        <v>1555.569749330959</v>
       </c>
       <c r="R6" t="n">
         <v>1672.742527425299</v>
@@ -4676,22 +4676,22 @@
         <v>1609.287089873682</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.0605308063</v>
+        <v>1479.108446204284</v>
       </c>
       <c r="U6" t="n">
-        <v>1326.723983806268</v>
+        <v>1302.771899204252</v>
       </c>
       <c r="V6" t="n">
-        <v>1127.606465868267</v>
+        <v>1103.654381266251</v>
       </c>
       <c r="W6" t="n">
-        <v>942.2837116014612</v>
+        <v>918.3316269994452</v>
       </c>
       <c r="X6" t="n">
-        <v>787.4162758403412</v>
+        <v>763.4641912383252</v>
       </c>
       <c r="Y6" t="n">
-        <v>660.9304966195619</v>
+        <v>636.9784120175459</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.45485054850599</v>
+        <v>442.2362827224111</v>
       </c>
       <c r="C7" t="n">
-        <v>33.45485054850599</v>
+        <v>442.2362827224111</v>
       </c>
       <c r="D7" t="n">
-        <v>33.45485054850599</v>
+        <v>276.3582899239337</v>
       </c>
       <c r="E7" t="n">
-        <v>33.45485054850599</v>
+        <v>276.3582899239337</v>
       </c>
       <c r="F7" t="n">
-        <v>33.45485054850599</v>
+        <v>99.65123588568994</v>
       </c>
       <c r="G7" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H7" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I7" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J7" t="n">
-        <v>33.45485054850599</v>
+        <v>120.0345357131958</v>
       </c>
       <c r="K7" t="n">
-        <v>262.5384259476825</v>
+        <v>394.7929902843314</v>
       </c>
       <c r="L7" t="n">
-        <v>262.5384259476825</v>
+        <v>808.7967658220929</v>
       </c>
       <c r="M7" t="n">
-        <v>676.5422014854441</v>
+        <v>1157.042858590625</v>
       </c>
       <c r="N7" t="n">
-        <v>1090.545977023206</v>
+        <v>1157.042858590625</v>
       </c>
       <c r="O7" t="n">
-        <v>1504.549752560967</v>
+        <v>1157.042858590625</v>
       </c>
       <c r="P7" t="n">
         <v>1504.549752560967</v>
@@ -4749,28 +4749,28 @@
         <v>1672.742527425299</v>
       </c>
       <c r="R7" t="n">
-        <v>1651.324706130671</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S7" t="n">
-        <v>1492.083337428668</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T7" t="n">
-        <v>1246.203891007123</v>
+        <v>1426.863081003754</v>
       </c>
       <c r="U7" t="n">
-        <v>967.7708902602286</v>
+        <v>1148.43008025686</v>
       </c>
       <c r="V7" t="n">
-        <v>680.8153821306591</v>
+        <v>861.47457212729</v>
       </c>
       <c r="W7" t="n">
-        <v>408.7889777169507</v>
+        <v>861.47457212729</v>
       </c>
       <c r="X7" t="n">
-        <v>163.3972230503632</v>
+        <v>861.47457212729</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.45485054850599</v>
+        <v>634.0549014413982</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.45485054850599</v>
+        <v>1167.821252773755</v>
       </c>
       <c r="C8" t="n">
-        <v>33.45485054850599</v>
+        <v>745.4115236259524</v>
       </c>
       <c r="D8" t="n">
-        <v>33.45485054850599</v>
+        <v>323.0017944781497</v>
       </c>
       <c r="E8" t="n">
-        <v>33.45485054850599</v>
+        <v>323.0017944781497</v>
       </c>
       <c r="F8" t="n">
-        <v>33.45485054850599</v>
+        <v>323.0017944781497</v>
       </c>
       <c r="G8" t="n">
-        <v>33.45485054850599</v>
+        <v>323.0017944781497</v>
       </c>
       <c r="H8" t="n">
-        <v>33.45485054850599</v>
+        <v>33.87163992136598</v>
       </c>
       <c r="I8" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J8" t="n">
-        <v>33.45485054850599</v>
+        <v>447.4586260862674</v>
       </c>
       <c r="K8" t="n">
-        <v>33.45485054850599</v>
+        <v>675.5809115967193</v>
       </c>
       <c r="L8" t="n">
-        <v>33.45485054850599</v>
+        <v>675.5809115967193</v>
       </c>
       <c r="M8" t="n">
-        <v>33.45485054850599</v>
+        <v>675.5809115967193</v>
       </c>
       <c r="N8" t="n">
-        <v>261.5771360589582</v>
+        <v>675.5809115967193</v>
       </c>
       <c r="O8" t="n">
-        <v>675.5809115967197</v>
+        <v>675.5809115967193</v>
       </c>
       <c r="P8" t="n">
         <v>1089.584687134481</v>
       </c>
       <c r="Q8" t="n">
-        <v>1503.588462672243</v>
+        <v>1503.588462672242</v>
       </c>
       <c r="R8" t="n">
         <v>1672.742527425299</v>
@@ -4834,22 +4834,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T8" t="n">
-        <v>1479.292021307319</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U8" t="n">
-        <v>1220.069718624336</v>
+        <v>1413.520224742316</v>
       </c>
       <c r="V8" t="n">
-        <v>857.452768558162</v>
+        <v>1413.520224742316</v>
       </c>
       <c r="W8" t="n">
-        <v>452.5973139691953</v>
+        <v>1413.520224742316</v>
       </c>
       <c r="X8" t="n">
-        <v>33.45485054850599</v>
+        <v>1413.520224742316</v>
       </c>
       <c r="Y8" t="n">
-        <v>33.45485054850599</v>
+        <v>1167.821252773755</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>515.6745109377832</v>
+        <v>539.6265955397988</v>
       </c>
       <c r="C9" t="n">
-        <v>409.2180497744255</v>
+        <v>433.1701343764411</v>
       </c>
       <c r="D9" t="n">
-        <v>314.1277609209787</v>
+        <v>338.0798455229943</v>
       </c>
       <c r="E9" t="n">
-        <v>220.0073462479324</v>
+        <v>243.959430849948</v>
       </c>
       <c r="F9" t="n">
-        <v>136.6235078640941</v>
+        <v>160.5755924661096</v>
       </c>
       <c r="G9" t="n">
-        <v>51.23841813027794</v>
+        <v>75.19050273229351</v>
       </c>
       <c r="H9" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I9" t="n">
         <v>59.51852370896358</v>
@@ -4886,25 +4886,25 @@
         <v>384.0768486751759</v>
       </c>
       <c r="K9" t="n">
-        <v>798.0806242129374</v>
+        <v>798.0806242129373</v>
       </c>
       <c r="L9" t="n">
-        <v>798.0806242129374</v>
+        <v>798.0806242129373</v>
       </c>
       <c r="M9" t="n">
-        <v>798.0806242129374</v>
+        <v>798.0806242129373</v>
       </c>
       <c r="N9" t="n">
-        <v>798.0806242129374</v>
+        <v>798.0806242129373</v>
       </c>
       <c r="O9" t="n">
-        <v>798.0806242129374</v>
+        <v>798.0806242129373</v>
       </c>
       <c r="P9" t="n">
         <v>1141.565973793198</v>
       </c>
       <c r="Q9" t="n">
-        <v>1555.56974933096</v>
+        <v>1555.569749330959</v>
       </c>
       <c r="R9" t="n">
         <v>1672.742527425299</v>
@@ -4913,22 +4913,22 @@
         <v>1609.287089873682</v>
       </c>
       <c r="T9" t="n">
-        <v>1479.108446204284</v>
+        <v>1503.0605308063</v>
       </c>
       <c r="U9" t="n">
-        <v>1302.771899204252</v>
+        <v>1326.723983806268</v>
       </c>
       <c r="V9" t="n">
-        <v>1103.654381266252</v>
+        <v>1127.606465868267</v>
       </c>
       <c r="W9" t="n">
-        <v>918.3316269994457</v>
+        <v>942.2837116014612</v>
       </c>
       <c r="X9" t="n">
-        <v>763.4641912383256</v>
+        <v>787.4162758403412</v>
       </c>
       <c r="Y9" t="n">
-        <v>636.9784120175464</v>
+        <v>660.9304966195619</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.3570248581315</v>
+        <v>648.2381321136747</v>
       </c>
       <c r="C10" t="n">
-        <v>173.3570248581315</v>
+        <v>475.6764205968997</v>
       </c>
       <c r="D10" t="n">
-        <v>173.3570248581315</v>
+        <v>427.6082490576285</v>
       </c>
       <c r="E10" t="n">
-        <v>173.3570248581315</v>
+        <v>427.6082490576285</v>
       </c>
       <c r="F10" t="n">
-        <v>173.3570248581315</v>
+        <v>427.6082490576285</v>
       </c>
       <c r="G10" t="n">
-        <v>173.3570248581315</v>
+        <v>262.0169740834561</v>
       </c>
       <c r="H10" t="n">
-        <v>33.45485054850599</v>
+        <v>122.1147997738306</v>
       </c>
       <c r="I10" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J10" t="n">
-        <v>120.0345357131959</v>
+        <v>120.0345357131958</v>
       </c>
       <c r="K10" t="n">
         <v>394.7929902843314</v>
       </c>
       <c r="L10" t="n">
-        <v>743.0390830528639</v>
+        <v>808.7967658220929</v>
       </c>
       <c r="M10" t="n">
-        <v>743.0390830528639</v>
+        <v>808.7967658220929</v>
       </c>
       <c r="N10" t="n">
-        <v>743.0390830528639</v>
+        <v>1157.042858590625</v>
       </c>
       <c r="O10" t="n">
         <v>1157.042858590625</v>
@@ -4986,28 +4986,28 @@
         <v>1672.742527425299</v>
       </c>
       <c r="R10" t="n">
-        <v>1672.742527425299</v>
+        <v>1651.324706130671</v>
       </c>
       <c r="S10" t="n">
-        <v>1672.742527425299</v>
+        <v>1651.324706130671</v>
       </c>
       <c r="T10" t="n">
-        <v>1426.863081003755</v>
+        <v>1405.445259709126</v>
       </c>
       <c r="U10" t="n">
-        <v>1148.43008025686</v>
+        <v>1127.012258962231</v>
       </c>
       <c r="V10" t="n">
-        <v>861.4745721272905</v>
+        <v>840.0567508326619</v>
       </c>
       <c r="W10" t="n">
-        <v>589.4481677135821</v>
+        <v>840.0567508326619</v>
       </c>
       <c r="X10" t="n">
-        <v>400.7766955440232</v>
+        <v>840.0567508326619</v>
       </c>
       <c r="Y10" t="n">
-        <v>173.3570248581315</v>
+        <v>840.0567508326619</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1253.60006400461</v>
+        <v>731.2390367702201</v>
       </c>
       <c r="C11" t="n">
-        <v>1253.60006400461</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="D11" t="n">
-        <v>831.1903348568071</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="E11" t="n">
-        <v>408.7806057090042</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="F11" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="G11" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H11" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I11" t="n">
-        <v>83.79828774524243</v>
+        <v>83.79828774524185</v>
       </c>
       <c r="J11" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K11" t="n">
-        <v>362.9849282099032</v>
+        <v>362.9849282099026</v>
       </c>
       <c r="L11" t="n">
-        <v>570.7285396968689</v>
+        <v>570.7285396968683</v>
       </c>
       <c r="M11" t="n">
-        <v>801.8833353847205</v>
+        <v>801.8833353847199</v>
       </c>
       <c r="N11" t="n">
         <v>1036.7784573317</v>
@@ -5062,7 +5062,7 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q11" t="n">
-        <v>1590.048899840628</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R11" t="n">
         <v>1672.742527425299</v>
@@ -5077,16 +5077,16 @@
         <v>1672.742527425299</v>
       </c>
       <c r="V11" t="n">
-        <v>1672.742527425299</v>
+        <v>1310.125577359125</v>
       </c>
       <c r="W11" t="n">
-        <v>1672.742527425299</v>
+        <v>1310.125577359125</v>
       </c>
       <c r="X11" t="n">
-        <v>1253.60006400461</v>
+        <v>1310.125577359125</v>
       </c>
       <c r="Y11" t="n">
-        <v>1253.60006400461</v>
+        <v>1153.648765918023</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352455</v>
       </c>
       <c r="C12" t="n">
-        <v>425.5107626718881</v>
+        <v>425.5107626718877</v>
       </c>
       <c r="D12" t="n">
-        <v>330.4204738184413</v>
+        <v>330.420473818441</v>
       </c>
       <c r="E12" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453947</v>
       </c>
       <c r="F12" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615563</v>
       </c>
       <c r="G12" t="n">
         <v>68.24978812594551</v>
       </c>
       <c r="H12" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I12" t="n">
         <v>83.76937108752902</v>
@@ -5123,22 +5123,22 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K12" t="n">
-        <v>588.6118936739097</v>
+        <v>605.2485493631987</v>
       </c>
       <c r="L12" t="n">
-        <v>741.5466961549138</v>
+        <v>758.1833518442028</v>
       </c>
       <c r="M12" t="n">
-        <v>920.0143971816303</v>
+        <v>936.6510528709192</v>
       </c>
       <c r="N12" t="n">
-        <v>1103.205607207306</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O12" t="n">
-        <v>1270.789775072916</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P12" t="n">
-        <v>1405.290844266289</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q12" t="n">
         <v>1511.8379027716</v>
@@ -5159,13 +5159,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W12" t="n">
-        <v>934.6243398969082</v>
+        <v>934.6243398969079</v>
       </c>
       <c r="X12" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357879</v>
       </c>
       <c r="Y12" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150086</v>
       </c>
     </row>
     <row r="13">
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>548.6016089020022</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="C13" t="n">
-        <v>376.0398973852271</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="D13" t="n">
-        <v>210.1619045867498</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="E13" t="n">
-        <v>210.1619045867498</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="F13" t="n">
-        <v>33.45485054850599</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G13" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H13" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I13" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J13" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015357</v>
       </c>
       <c r="K13" t="n">
-        <v>505.1482476164479</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L13" t="n">
-        <v>592.940721149037</v>
+        <v>557.8138834183839</v>
       </c>
       <c r="M13" t="n">
-        <v>880.6542221623231</v>
+        <v>650.3787373454006</v>
       </c>
       <c r="N13" t="n">
-        <v>1294.657997700085</v>
+        <v>1064.382512883162</v>
       </c>
       <c r="O13" t="n">
-        <v>1378.12365616191</v>
+        <v>1478.386288420924</v>
       </c>
       <c r="P13" t="n">
-        <v>1449.542946114066</v>
+        <v>1617.735720978398</v>
       </c>
       <c r="Q13" t="n">
         <v>1667.182735391305</v>
@@ -5226,25 +5226,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S13" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T13" t="n">
-        <v>1429.437390511417</v>
+        <v>1281.21743198393</v>
       </c>
       <c r="U13" t="n">
-        <v>1429.437390511417</v>
+        <v>1002.817294762665</v>
       </c>
       <c r="V13" t="n">
-        <v>1142.481882381848</v>
+        <v>715.8617866330958</v>
       </c>
       <c r="W13" t="n">
-        <v>1142.481882381848</v>
+        <v>443.8353822193874</v>
       </c>
       <c r="X13" t="n">
-        <v>967.8398983068812</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="Y13" t="n">
-        <v>740.4202276209894</v>
+        <v>198.4436275527998</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>731.2390367702201</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="C14" t="n">
         <v>308.8293076224172</v>
@@ -5272,10 +5272,10 @@
         <v>308.8293076224172</v>
       </c>
       <c r="H14" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I14" t="n">
-        <v>83.79828774524188</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J14" t="n">
         <v>195.5292216073324</v>
@@ -5305,25 +5305,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S14" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T14" t="n">
-        <v>1405.510527385115</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U14" t="n">
-        <v>1146.395677971862</v>
+        <v>1413.627678012047</v>
       </c>
       <c r="V14" t="n">
-        <v>783.7787279056888</v>
+        <v>1051.010727945873</v>
       </c>
       <c r="W14" t="n">
-        <v>731.2390367702201</v>
+        <v>727.9717710431065</v>
       </c>
       <c r="X14" t="n">
-        <v>731.2390367702201</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="Y14" t="n">
-        <v>731.2390367702201</v>
+        <v>308.8293076224172</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>531.9672238352457</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C15" t="n">
-        <v>425.510762671888</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D15" t="n">
-        <v>330.4204738184412</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E15" t="n">
-        <v>236.3000591453949</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F15" t="n">
-        <v>152.9162207615565</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G15" t="n">
         <v>68.24978812594551</v>
       </c>
       <c r="H15" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I15" t="n">
-        <v>83.76937108752902</v>
+        <v>57.70569792707141</v>
       </c>
       <c r="J15" t="n">
-        <v>260.6979650056807</v>
+        <v>124.2518767018075</v>
       </c>
       <c r="K15" t="n">
-        <v>374.435983851113</v>
+        <v>538.2556522395689</v>
       </c>
       <c r="L15" t="n">
-        <v>527.3707863321171</v>
+        <v>691.190454720573</v>
       </c>
       <c r="M15" t="n">
-        <v>705.8384873588336</v>
+        <v>1053.82383096526</v>
       </c>
       <c r="N15" t="n">
-        <v>1119.842262896595</v>
+        <v>1237.015040990935</v>
       </c>
       <c r="O15" t="n">
-        <v>1287.426430762205</v>
+        <v>1404.599208856545</v>
       </c>
       <c r="P15" t="n">
-        <v>1421.927499955579</v>
+        <v>1539.100278049918</v>
       </c>
       <c r="Q15" t="n">
-        <v>1511.8379027716</v>
+        <v>1629.01068086594</v>
       </c>
       <c r="R15" t="n">
         <v>1672.742527425299</v>
@@ -5399,10 +5399,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X15" t="n">
-        <v>779.7569041357881</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y15" t="n">
-        <v>653.2711249150088</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="16">
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>706.6413356173149</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="C16" t="n">
-        <v>534.0796241005398</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="D16" t="n">
-        <v>368.2016313020625</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="E16" t="n">
-        <v>198.4436275527998</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="F16" t="n">
-        <v>198.4436275527998</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G16" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H16" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I16" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J16" t="n">
         <v>161.7834697148434</v>
       </c>
       <c r="K16" t="n">
-        <v>230.3897930453123</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L16" t="n">
-        <v>318.1822665779013</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M16" t="n">
-        <v>732.1860421156629</v>
+        <v>1006.944496686799</v>
       </c>
       <c r="N16" t="n">
-        <v>1146.189817653424</v>
+        <v>1097.308365280052</v>
       </c>
       <c r="O16" t="n">
-        <v>1229.65547611525</v>
+        <v>1180.774023741878</v>
       </c>
       <c r="P16" t="n">
         <v>1449.542946114066</v>
@@ -5463,25 +5463,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S16" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T16" t="n">
-        <v>1429.437390511417</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U16" t="n">
-        <v>1151.037253290152</v>
+        <v>1002.295781026849</v>
       </c>
       <c r="V16" t="n">
-        <v>864.0817451605828</v>
+        <v>970.1112990336808</v>
       </c>
       <c r="W16" t="n">
-        <v>864.0817451605828</v>
+        <v>698.0848946199724</v>
       </c>
       <c r="X16" t="n">
-        <v>864.0817451605828</v>
+        <v>452.6931399533848</v>
       </c>
       <c r="Y16" t="n">
-        <v>864.0817451605828</v>
+        <v>225.2734692674931</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>63.71793020166638</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="C17" t="n">
-        <v>33.45485054850597</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="D17" t="n">
-        <v>33.45485054850597</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="E17" t="n">
-        <v>33.45485054850597</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="F17" t="n">
-        <v>33.45485054850597</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="G17" t="n">
-        <v>33.45485054850597</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H17" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I17" t="n">
-        <v>83.79828774524185</v>
+        <v>83.7982877452425</v>
       </c>
       <c r="J17" t="n">
-        <v>195.5292216073324</v>
+        <v>195.529221607333</v>
       </c>
       <c r="K17" t="n">
-        <v>362.9849282099026</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L17" t="n">
-        <v>570.7285396968683</v>
+        <v>570.728539696869</v>
       </c>
       <c r="M17" t="n">
-        <v>801.8833353847199</v>
+        <v>801.8833353847206</v>
       </c>
       <c r="N17" t="n">
         <v>1036.7784573317</v>
@@ -5542,25 +5542,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S17" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T17" t="n">
-        <v>1672.742527425299</v>
+        <v>1541.11334933242</v>
       </c>
       <c r="U17" t="n">
-        <v>1672.742527425299</v>
+        <v>1541.11334933242</v>
       </c>
       <c r="V17" t="n">
-        <v>1310.125577359125</v>
+        <v>1541.11334933242</v>
       </c>
       <c r="W17" t="n">
-        <v>905.2701227701584</v>
+        <v>1136.257894743453</v>
       </c>
       <c r="X17" t="n">
-        <v>486.1276593494691</v>
+        <v>717.1154313227638</v>
       </c>
       <c r="Y17" t="n">
-        <v>486.1276593494691</v>
+        <v>308.8293076224172</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>531.9672238352452</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C18" t="n">
-        <v>425.5107626718875</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D18" t="n">
-        <v>330.4204738184408</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E18" t="n">
-        <v>236.3000591453945</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F18" t="n">
-        <v>152.9162207615561</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G18" t="n">
-        <v>68.24978812594492</v>
+        <v>68.24978812594554</v>
       </c>
       <c r="H18" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I18" t="n">
-        <v>83.769371087529</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J18" t="n">
-        <v>474.8738748284773</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K18" t="n">
-        <v>605.2485493631987</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L18" t="n">
-        <v>758.1833518442028</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M18" t="n">
-        <v>936.6510528709192</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N18" t="n">
         <v>1119.842262896595</v>
@@ -5612,7 +5612,7 @@
         <v>1287.426430762205</v>
       </c>
       <c r="P18" t="n">
-        <v>1421.927499955578</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q18" t="n">
         <v>1511.8379027716</v>
@@ -5621,25 +5621,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S18" t="n">
-        <v>1622.635830272357</v>
+        <v>1622.635830272358</v>
       </c>
       <c r="T18" t="n">
         <v>1495.353879029496</v>
       </c>
       <c r="U18" t="n">
-        <v>1319.064612101714</v>
+        <v>1319.064612101715</v>
       </c>
       <c r="V18" t="n">
         <v>1119.947094163714</v>
       </c>
       <c r="W18" t="n">
-        <v>934.6243398969077</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X18" t="n">
-        <v>779.7569041357876</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y18" t="n">
-        <v>653.2711249150084</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="19">
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>607.940806974864</v>
+        <v>710.7866781387837</v>
       </c>
       <c r="C19" t="n">
-        <v>607.940806974864</v>
+        <v>710.7866781387837</v>
       </c>
       <c r="D19" t="n">
-        <v>607.940806974864</v>
+        <v>544.9086853403064</v>
       </c>
       <c r="E19" t="n">
-        <v>445.6918736858408</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="F19" t="n">
-        <v>268.984819647597</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G19" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H19" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I19" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J19" t="n">
         <v>161.7834697148434</v>
       </c>
       <c r="K19" t="n">
-        <v>230.3897930453123</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L19" t="n">
-        <v>318.1822665779013</v>
+        <v>769.144789594209</v>
       </c>
       <c r="M19" t="n">
-        <v>732.1860421156626</v>
+        <v>861.7096435212256</v>
       </c>
       <c r="N19" t="n">
-        <v>1146.189817653424</v>
+        <v>952.0735121144794</v>
       </c>
       <c r="O19" t="n">
-        <v>1229.65547611525</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P19" t="n">
         <v>1449.542946114066</v>
@@ -5700,25 +5700,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S19" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T19" t="n">
-        <v>1672.742527425299</v>
+        <v>1416.980475673232</v>
       </c>
       <c r="U19" t="n">
-        <v>1394.342390204034</v>
+        <v>1416.980475673232</v>
       </c>
       <c r="V19" t="n">
-        <v>1107.386882074464</v>
+        <v>1130.024967543663</v>
       </c>
       <c r="W19" t="n">
-        <v>835.3604776607558</v>
+        <v>1130.024967543663</v>
       </c>
       <c r="X19" t="n">
-        <v>835.3604776607558</v>
+        <v>1130.024967543663</v>
       </c>
       <c r="Y19" t="n">
-        <v>607.940806974864</v>
+        <v>902.6052968577708</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1199.440159488163</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="C20" t="n">
-        <v>777.0304303403603</v>
+        <v>620.4838481711383</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6207011925576</v>
+        <v>433.509516053608</v>
       </c>
       <c r="E20" t="n">
-        <v>354.6207011925576</v>
+        <v>433.509516053608</v>
       </c>
       <c r="F20" t="n">
-        <v>354.6207011925576</v>
+        <v>433.509516053608</v>
       </c>
       <c r="G20" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H20" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I20" t="n">
-        <v>83.79828774524185</v>
+        <v>83.79828774524199</v>
       </c>
       <c r="J20" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K20" t="n">
-        <v>362.9849282099026</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L20" t="n">
-        <v>570.7285396968683</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M20" t="n">
-        <v>801.8833353847198</v>
+        <v>801.8833353847202</v>
       </c>
       <c r="N20" t="n">
-        <v>1036.778457331699</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O20" t="n">
         <v>1258.583260144776</v>
@@ -5773,31 +5773,31 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q20" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R20" t="n">
         <v>1672.742527425299</v>
       </c>
       <c r="S20" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T20" t="n">
-        <v>1458.555008901415</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U20" t="n">
-        <v>1199.440159488163</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="V20" t="n">
-        <v>1199.440159488163</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="W20" t="n">
-        <v>1199.440159488163</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="X20" t="n">
-        <v>1199.440159488163</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="Y20" t="n">
-        <v>1199.440159488163</v>
+        <v>1042.893577318941</v>
       </c>
     </row>
     <row r="21">
@@ -5825,22 +5825,22 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H21" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I21" t="n">
-        <v>83.769371087529</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J21" t="n">
         <v>474.8738748284774</v>
       </c>
       <c r="K21" t="n">
-        <v>605.2485493631991</v>
+        <v>605.2485493631987</v>
       </c>
       <c r="L21" t="n">
-        <v>758.1833518442032</v>
+        <v>758.1833518442028</v>
       </c>
       <c r="M21" t="n">
-        <v>936.6510528709197</v>
+        <v>936.6510528709192</v>
       </c>
       <c r="N21" t="n">
         <v>1119.842262896595</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.45485054850597</v>
+        <v>859.3710110905299</v>
       </c>
       <c r="C22" t="n">
-        <v>33.45485054850597</v>
+        <v>686.8092995737549</v>
       </c>
       <c r="D22" t="n">
-        <v>33.45485054850597</v>
+        <v>520.9313067752776</v>
       </c>
       <c r="E22" t="n">
-        <v>33.45485054850597</v>
+        <v>520.9313067752776</v>
       </c>
       <c r="F22" t="n">
-        <v>33.45485054850597</v>
+        <v>344.2242527370338</v>
       </c>
       <c r="G22" t="n">
-        <v>33.45485054850597</v>
+        <v>179.23547573274</v>
       </c>
       <c r="H22" t="n">
-        <v>33.45485054850597</v>
+        <v>44.69005610076135</v>
       </c>
       <c r="I22" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J22" t="n">
         <v>161.7834697148434</v>
@@ -5916,19 +5916,19 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L22" t="n">
-        <v>769.1447895942083</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M22" t="n">
-        <v>861.7096435212251</v>
+        <v>685.5055750760537</v>
       </c>
       <c r="N22" t="n">
-        <v>952.0735121144787</v>
+        <v>775.8694436693075</v>
       </c>
       <c r="O22" t="n">
-        <v>1035.539170576304</v>
+        <v>1189.873219207069</v>
       </c>
       <c r="P22" t="n">
-        <v>1449.542946114065</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q22" t="n">
         <v>1667.182735391305</v>
@@ -5940,22 +5940,22 @@
         <v>1524.001055161996</v>
       </c>
       <c r="T22" t="n">
-        <v>1280.695918248114</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="U22" t="n">
-        <v>1002.295781026849</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="V22" t="n">
-        <v>715.3402728972792</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="W22" t="n">
-        <v>443.3138684835707</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="X22" t="n">
-        <v>197.9221138169832</v>
+        <v>1278.609300495409</v>
       </c>
       <c r="Y22" t="n">
-        <v>33.45485054850597</v>
+        <v>1051.189629809517</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>845.3139403042629</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="C23" t="n">
-        <v>845.3139403042629</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="D23" t="n">
-        <v>433.509516053608</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="E23" t="n">
-        <v>433.509516053608</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="F23" t="n">
-        <v>433.509516053608</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G23" t="n">
-        <v>33.45485054850597</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H23" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I23" t="n">
-        <v>83.79828774524185</v>
+        <v>83.7982877452425</v>
       </c>
       <c r="J23" t="n">
-        <v>195.5292216073324</v>
+        <v>195.529221607333</v>
       </c>
       <c r="K23" t="n">
-        <v>362.9849282099026</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L23" t="n">
-        <v>570.7285396968683</v>
+        <v>570.728539696869</v>
       </c>
       <c r="M23" t="n">
-        <v>801.8833353847199</v>
+        <v>801.8833353847206</v>
       </c>
       <c r="N23" t="n">
         <v>1036.7784573317</v>
@@ -6016,25 +6016,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S23" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T23" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U23" t="n">
-        <v>1672.742527425299</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="V23" t="n">
-        <v>1672.742527425299</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="W23" t="n">
-        <v>1672.742527425299</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="X23" t="n">
-        <v>1253.60006400461</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="Y23" t="n">
-        <v>845.3139403042629</v>
+        <v>783.7787279056888</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352459</v>
       </c>
       <c r="C24" t="n">
-        <v>425.5107626718881</v>
+        <v>425.5107626718882</v>
       </c>
       <c r="D24" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184415</v>
       </c>
       <c r="E24" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453952</v>
       </c>
       <c r="F24" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615568</v>
       </c>
       <c r="G24" t="n">
         <v>68.24978812594551</v>
       </c>
       <c r="H24" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I24" t="n">
-        <v>83.769371087529</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J24" t="n">
         <v>474.8738748284774</v>
       </c>
       <c r="K24" t="n">
-        <v>588.6118936739097</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L24" t="n">
-        <v>741.5466961549138</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M24" t="n">
-        <v>920.0143971816303</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N24" t="n">
-        <v>1103.205607207306</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O24" t="n">
-        <v>1270.789775072916</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P24" t="n">
-        <v>1405.290844266289</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q24" t="n">
         <v>1511.8379027716</v>
@@ -6098,7 +6098,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T24" t="n">
-        <v>1495.353879029496</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U24" t="n">
         <v>1319.064612101715</v>
@@ -6107,13 +6107,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W24" t="n">
-        <v>934.6243398969082</v>
+        <v>934.6243398969084</v>
       </c>
       <c r="X24" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357883</v>
       </c>
       <c r="Y24" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150091</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>864.0817451605822</v>
+        <v>923.4462243780406</v>
       </c>
       <c r="C25" t="n">
-        <v>691.5200336438071</v>
+        <v>750.8845128612655</v>
       </c>
       <c r="D25" t="n">
-        <v>691.5200336438071</v>
+        <v>585.0065200627882</v>
       </c>
       <c r="E25" t="n">
-        <v>580.2372933178194</v>
+        <v>415.2485163135256</v>
       </c>
       <c r="F25" t="n">
-        <v>403.5302392795757</v>
+        <v>238.5414622752818</v>
       </c>
       <c r="G25" t="n">
         <v>238.5414622752818</v>
@@ -6144,25 +6144,25 @@
         <v>103.9960426433032</v>
       </c>
       <c r="I25" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J25" t="n">
         <v>161.7834697148434</v>
       </c>
       <c r="K25" t="n">
-        <v>230.3897930453123</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L25" t="n">
-        <v>318.1822665779013</v>
+        <v>769.144789594209</v>
       </c>
       <c r="M25" t="n">
-        <v>732.1860421156626</v>
+        <v>861.7096435212256</v>
       </c>
       <c r="N25" t="n">
-        <v>1146.189817653424</v>
+        <v>952.0735121144794</v>
       </c>
       <c r="O25" t="n">
-        <v>1229.65547611525</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P25" t="n">
         <v>1449.542946114066</v>
@@ -6174,25 +6174,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S25" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T25" t="n">
-        <v>1429.437390511417</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="U25" t="n">
-        <v>1151.037253290152</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="V25" t="n">
-        <v>864.0817451605822</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="W25" t="n">
-        <v>864.0817451605822</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="X25" t="n">
-        <v>864.0817451605822</v>
+        <v>1342.68451378292</v>
       </c>
       <c r="Y25" t="n">
-        <v>864.0817451605822</v>
+        <v>1115.264843097028</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>433.509516053608</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="C26" t="n">
-        <v>433.509516053608</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="D26" t="n">
-        <v>433.509516053608</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="E26" t="n">
-        <v>433.509516053608</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="F26" t="n">
-        <v>433.509516053608</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G26" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H26" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I26" t="n">
-        <v>83.79828774524188</v>
+        <v>83.7982877452425</v>
       </c>
       <c r="J26" t="n">
-        <v>195.5292216073324</v>
+        <v>195.529221607333</v>
       </c>
       <c r="K26" t="n">
-        <v>362.9849282099026</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L26" t="n">
-        <v>570.7285396968683</v>
+        <v>570.728539696869</v>
       </c>
       <c r="M26" t="n">
         <v>801.8833353847206</v>
@@ -6253,25 +6253,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S26" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T26" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U26" t="n">
-        <v>1672.742527425299</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="V26" t="n">
-        <v>1310.125577359126</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="W26" t="n">
-        <v>905.2701227701591</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="X26" t="n">
-        <v>841.7956397539547</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="Y26" t="n">
-        <v>433.509516053608</v>
+        <v>783.7787279056888</v>
       </c>
     </row>
     <row r="27">
@@ -6296,37 +6296,37 @@
         <v>152.9162207615568</v>
       </c>
       <c r="G27" t="n">
-        <v>68.24978812594553</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H27" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I27" t="n">
-        <v>57.70569792707142</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J27" t="n">
-        <v>124.2518767018075</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K27" t="n">
-        <v>237.9898955472398</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L27" t="n">
-        <v>644.5435644264568</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M27" t="n">
-        <v>823.0112654531733</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N27" t="n">
-        <v>1237.015040990935</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O27" t="n">
-        <v>1404.599208856545</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P27" t="n">
-        <v>1539.100278049918</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q27" t="n">
-        <v>1629.01068086594</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R27" t="n">
         <v>1672.742527425299</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1017.893809287537</v>
+        <v>718.3596126512649</v>
       </c>
       <c r="C28" t="n">
-        <v>845.3320977707623</v>
+        <v>545.7979011344898</v>
       </c>
       <c r="D28" t="n">
-        <v>679.454104972285</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="E28" t="n">
-        <v>509.6961012230222</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F28" t="n">
-        <v>332.9890471847784</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G28" t="n">
-        <v>168.0002701804846</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H28" t="n">
         <v>33.45485054850599</v>
@@ -6387,19 +6387,19 @@
         <v>161.7834697148434</v>
       </c>
       <c r="K28" t="n">
-        <v>230.3897930453123</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L28" t="n">
-        <v>644.3935685830738</v>
+        <v>790.2903535690692</v>
       </c>
       <c r="M28" t="n">
-        <v>736.9584225100906</v>
+        <v>1204.294129106831</v>
       </c>
       <c r="N28" t="n">
-        <v>827.3222911033442</v>
+        <v>1294.657997700085</v>
       </c>
       <c r="O28" t="n">
-        <v>1035.539170576305</v>
+        <v>1378.12365616191</v>
       </c>
       <c r="P28" t="n">
         <v>1449.542946114066</v>
@@ -6411,25 +6411,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S28" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T28" t="n">
-        <v>1672.742527425299</v>
+        <v>1382.989656722731</v>
       </c>
       <c r="U28" t="n">
-        <v>1437.132098692416</v>
+        <v>1382.989656722731</v>
       </c>
       <c r="V28" t="n">
-        <v>1437.132098692416</v>
+        <v>1382.989656722731</v>
       </c>
       <c r="W28" t="n">
-        <v>1437.132098692416</v>
+        <v>1382.989656722731</v>
       </c>
       <c r="X28" t="n">
-        <v>1437.132098692416</v>
+        <v>1137.597902056144</v>
       </c>
       <c r="Y28" t="n">
-        <v>1209.712428006525</v>
+        <v>910.178231370252</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1146.395677971862</v>
+        <v>634.6074536185941</v>
       </c>
       <c r="C29" t="n">
-        <v>723.9859488240589</v>
+        <v>212.1977244707913</v>
       </c>
       <c r="D29" t="n">
-        <v>723.9859488240589</v>
+        <v>212.1977244707913</v>
       </c>
       <c r="E29" t="n">
-        <v>723.9859488240589</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="F29" t="n">
-        <v>708.8839731275193</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G29" t="n">
-        <v>308.8293076224172</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H29" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I29" t="n">
-        <v>83.79828774524184</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J29" t="n">
-        <v>195.5292216073323</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K29" t="n">
         <v>362.9849282099026</v>
@@ -6490,25 +6490,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S29" t="n">
-        <v>1619.698045908997</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T29" t="n">
         <v>1405.510527385114</v>
       </c>
       <c r="U29" t="n">
-        <v>1146.395677971862</v>
+        <v>1405.510527385114</v>
       </c>
       <c r="V29" t="n">
-        <v>1146.395677971862</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="W29" t="n">
-        <v>1146.395677971862</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="X29" t="n">
-        <v>1146.395677971862</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="Y29" t="n">
-        <v>1146.395677971862</v>
+        <v>634.6074536185941</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352455</v>
       </c>
       <c r="C30" t="n">
-        <v>425.5107626718881</v>
+        <v>425.5107626718878</v>
       </c>
       <c r="D30" t="n">
-        <v>330.4204738184413</v>
+        <v>330.420473818441</v>
       </c>
       <c r="E30" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453947</v>
       </c>
       <c r="F30" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615564</v>
       </c>
       <c r="G30" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594532</v>
       </c>
       <c r="H30" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I30" t="n">
-        <v>83.769371087529</v>
+        <v>57.70569792707141</v>
       </c>
       <c r="J30" t="n">
-        <v>474.8738748284774</v>
+        <v>448.8102016680198</v>
       </c>
       <c r="K30" t="n">
-        <v>605.2485493631991</v>
+        <v>562.5482205134522</v>
       </c>
       <c r="L30" t="n">
-        <v>758.1833518442032</v>
+        <v>715.4830229944562</v>
       </c>
       <c r="M30" t="n">
-        <v>936.6510528709197</v>
+        <v>893.9507240211726</v>
       </c>
       <c r="N30" t="n">
-        <v>1119.842262896595</v>
+        <v>1077.141934046848</v>
       </c>
       <c r="O30" t="n">
-        <v>1287.426430762205</v>
+        <v>1244.726101912458</v>
       </c>
       <c r="P30" t="n">
-        <v>1421.927499955578</v>
+        <v>1379.227171105832</v>
       </c>
       <c r="Q30" t="n">
-        <v>1511.8379027716</v>
+        <v>1629.01068086594</v>
       </c>
       <c r="R30" t="n">
         <v>1672.742527425299</v>
@@ -6581,13 +6581,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W30" t="n">
-        <v>934.6243398969082</v>
+        <v>934.6243398969079</v>
       </c>
       <c r="X30" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357879</v>
       </c>
       <c r="Y30" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150086</v>
       </c>
     </row>
     <row r="31">
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>717.4703968570815</v>
+        <v>730.2693766131406</v>
       </c>
       <c r="C31" t="n">
-        <v>544.9086853403064</v>
+        <v>730.2693766131406</v>
       </c>
       <c r="D31" t="n">
-        <v>544.9086853403064</v>
+        <v>730.2693766131406</v>
       </c>
       <c r="E31" t="n">
-        <v>375.1506815910436</v>
+        <v>560.5113728638778</v>
       </c>
       <c r="F31" t="n">
-        <v>198.4436275527998</v>
+        <v>383.804318825634</v>
       </c>
       <c r="G31" t="n">
-        <v>33.45485054850597</v>
+        <v>238.5414622752818</v>
       </c>
       <c r="H31" t="n">
-        <v>33.45485054850597</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I31" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J31" t="n">
-        <v>75.20378455015356</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K31" t="n">
-        <v>143.8101078806224</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L31" t="n">
-        <v>557.8138834183839</v>
+        <v>919.1520231542094</v>
       </c>
       <c r="M31" t="n">
-        <v>650.3787373454006</v>
+        <v>1011.716877081226</v>
       </c>
       <c r="N31" t="n">
-        <v>740.7426059386543</v>
+        <v>1102.08074567448</v>
       </c>
       <c r="O31" t="n">
-        <v>1035.539170576304</v>
+        <v>1378.12365616191</v>
       </c>
       <c r="P31" t="n">
         <v>1449.542946114066</v>
@@ -6648,25 +6648,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S31" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T31" t="n">
-        <v>1429.437390511417</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U31" t="n">
-        <v>1429.437390511417</v>
+        <v>1002.295781026849</v>
       </c>
       <c r="V31" t="n">
-        <v>1429.437390511417</v>
+        <v>1002.295781026849</v>
       </c>
       <c r="W31" t="n">
-        <v>1382.100440928548</v>
+        <v>730.2693766131406</v>
       </c>
       <c r="X31" t="n">
-        <v>1136.70868626196</v>
+        <v>730.2693766131406</v>
       </c>
       <c r="Y31" t="n">
-        <v>909.2890155760686</v>
+        <v>730.2693766131406</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>433.509516053608</v>
+        <v>783.7787279056884</v>
       </c>
       <c r="C32" t="n">
         <v>433.509516053608</v>
@@ -6691,25 +6691,25 @@
         <v>433.509516053608</v>
       </c>
       <c r="G32" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H32" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I32" t="n">
-        <v>83.79828774524245</v>
+        <v>83.79828774524185</v>
       </c>
       <c r="J32" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K32" t="n">
-        <v>362.9849282099032</v>
+        <v>362.9849282099026</v>
       </c>
       <c r="L32" t="n">
-        <v>570.7285396968689</v>
+        <v>570.7285396968683</v>
       </c>
       <c r="M32" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847199</v>
       </c>
       <c r="N32" t="n">
         <v>1036.7784573317</v>
@@ -6727,25 +6727,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S32" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T32" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385114</v>
       </c>
       <c r="U32" t="n">
-        <v>1672.742527425299</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="V32" t="n">
-        <v>1310.125577359126</v>
+        <v>783.7787279056884</v>
       </c>
       <c r="W32" t="n">
-        <v>905.2701227701591</v>
+        <v>783.7787279056884</v>
       </c>
       <c r="X32" t="n">
-        <v>841.7956397539547</v>
+        <v>783.7787279056884</v>
       </c>
       <c r="Y32" t="n">
-        <v>433.509516053608</v>
+        <v>783.7787279056884</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H33" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I33" t="n">
-        <v>57.70569792707142</v>
+        <v>83.76937108752901</v>
       </c>
       <c r="J33" t="n">
-        <v>448.8102016680198</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K33" t="n">
-        <v>562.5482205134522</v>
+        <v>722.4213274575388</v>
       </c>
       <c r="L33" t="n">
-        <v>715.4830229944562</v>
+        <v>875.3561299385429</v>
       </c>
       <c r="M33" t="n">
-        <v>893.9507240211726</v>
+        <v>1053.82383096526</v>
       </c>
       <c r="N33" t="n">
-        <v>1077.141934046848</v>
+        <v>1237.015040990935</v>
       </c>
       <c r="O33" t="n">
-        <v>1244.726101912458</v>
+        <v>1404.599208856545</v>
       </c>
       <c r="P33" t="n">
-        <v>1379.227171105832</v>
+        <v>1539.100278049918</v>
       </c>
       <c r="Q33" t="n">
-        <v>1511.8379027716</v>
+        <v>1629.01068086594</v>
       </c>
       <c r="R33" t="n">
         <v>1672.742527425299</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>375.7745658145438</v>
+        <v>534.0796241005398</v>
       </c>
       <c r="C34" t="n">
-        <v>203.2128542977687</v>
+        <v>534.0796241005398</v>
       </c>
       <c r="D34" t="n">
-        <v>203.2128542977687</v>
+        <v>368.2016313020625</v>
       </c>
       <c r="E34" t="n">
-        <v>33.45485054850599</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="F34" t="n">
-        <v>33.45485054850599</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G34" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H34" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I34" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J34" t="n">
         <v>161.7834697148434</v>
@@ -6864,13 +6864,13 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L34" t="n">
-        <v>592.940721149037</v>
+        <v>769.1447895942085</v>
       </c>
       <c r="M34" t="n">
-        <v>685.5055750760537</v>
+        <v>861.7096435212253</v>
       </c>
       <c r="N34" t="n">
-        <v>775.8694436693074</v>
+        <v>952.0735121144789</v>
       </c>
       <c r="O34" t="n">
         <v>1035.539170576305</v>
@@ -6885,25 +6885,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S34" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T34" t="n">
-        <v>1672.742527425299</v>
+        <v>1371.461673865083</v>
       </c>
       <c r="U34" t="n">
-        <v>1599.386522429288</v>
+        <v>1093.061536643818</v>
       </c>
       <c r="V34" t="n">
-        <v>1312.431014299719</v>
+        <v>806.1060285142482</v>
       </c>
       <c r="W34" t="n">
-        <v>1040.40460988601</v>
+        <v>534.0796241005398</v>
       </c>
       <c r="X34" t="n">
-        <v>795.0128552194226</v>
+        <v>534.0796241005398</v>
       </c>
       <c r="Y34" t="n">
-        <v>567.5931845335309</v>
+        <v>534.0796241005398</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>378.9232733167221</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="C35" t="n">
-        <v>378.9232733167221</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="D35" t="n">
-        <v>378.9232733167221</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="E35" t="n">
-        <v>378.9232733167221</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="F35" t="n">
-        <v>378.9232733167221</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G35" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H35" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I35" t="n">
-        <v>83.79828774524188</v>
+        <v>83.79828774524184</v>
       </c>
       <c r="J35" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073325</v>
       </c>
       <c r="K35" t="n">
-        <v>362.9849282099033</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L35" t="n">
-        <v>570.728539696869</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M35" t="n">
-        <v>801.8833353847206</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N35" t="n">
         <v>1036.7784573317</v>
@@ -6967,22 +6967,22 @@
         <v>1619.698045908998</v>
       </c>
       <c r="T35" t="n">
-        <v>1405.510527385115</v>
+        <v>1405.510527385114</v>
       </c>
       <c r="U35" t="n">
-        <v>1146.395677971862</v>
+        <v>1405.510527385114</v>
       </c>
       <c r="V35" t="n">
-        <v>783.7787279056888</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="W35" t="n">
-        <v>378.9232733167221</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="X35" t="n">
-        <v>378.9232733167221</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="Y35" t="n">
-        <v>378.9232733167221</v>
+        <v>1042.893577318941</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H36" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I36" t="n">
-        <v>83.76937108752902</v>
+        <v>83.76937108752901</v>
       </c>
       <c r="J36" t="n">
         <v>474.8738748284774</v>
       </c>
       <c r="K36" t="n">
-        <v>605.2485493631991</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L36" t="n">
-        <v>758.1833518442032</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M36" t="n">
-        <v>936.6510528709197</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N36" t="n">
-        <v>1119.842262896595</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O36" t="n">
-        <v>1287.426430762205</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P36" t="n">
-        <v>1421.927499955578</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q36" t="n">
         <v>1511.8379027716</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>210.1619045867498</v>
+        <v>375.7745658145438</v>
       </c>
       <c r="C37" t="n">
-        <v>210.1619045867498</v>
+        <v>203.2128542977687</v>
       </c>
       <c r="D37" t="n">
-        <v>210.1619045867498</v>
+        <v>203.2128542977687</v>
       </c>
       <c r="E37" t="n">
-        <v>210.1619045867498</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="F37" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G37" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H37" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I37" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J37" t="n">
-        <v>75.20378455015359</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K37" t="n">
-        <v>143.8101078806224</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L37" t="n">
-        <v>231.6025814132115</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M37" t="n">
-        <v>645.606356950973</v>
+        <v>685.5055750760537</v>
       </c>
       <c r="N37" t="n">
-        <v>735.9702255442268</v>
+        <v>775.8694436693074</v>
       </c>
       <c r="O37" t="n">
-        <v>1149.974001081988</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P37" t="n">
-        <v>1563.97777661975</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q37" t="n">
         <v>1667.182735391305</v>
@@ -7125,22 +7125,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T37" t="n">
-        <v>1672.742527425299</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="U37" t="n">
-        <v>1394.342390204034</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="V37" t="n">
-        <v>1107.386882074465</v>
+        <v>1142.481882381847</v>
       </c>
       <c r="W37" t="n">
-        <v>835.3604776607565</v>
+        <v>870.4554779681389</v>
       </c>
       <c r="X37" t="n">
-        <v>589.968722994169</v>
+        <v>625.0637233015514</v>
       </c>
       <c r="Y37" t="n">
-        <v>362.5490523082772</v>
+        <v>397.6440526156596</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>708.8839731275193</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="C38" t="n">
-        <v>708.8839731275193</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="D38" t="n">
-        <v>708.8839731275193</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="E38" t="n">
-        <v>708.8839731275193</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="F38" t="n">
-        <v>708.8839731275193</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G38" t="n">
-        <v>308.8293076224172</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H38" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I38" t="n">
-        <v>83.79828774524185</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J38" t="n">
         <v>195.5292216073324</v>
@@ -7201,25 +7201,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S38" t="n">
-        <v>1672.742527425299</v>
+        <v>1628.355842324682</v>
       </c>
       <c r="T38" t="n">
-        <v>1672.742527425299</v>
+        <v>1628.355842324682</v>
       </c>
       <c r="U38" t="n">
-        <v>1490.643386614382</v>
+        <v>1628.355842324682</v>
       </c>
       <c r="V38" t="n">
-        <v>1128.026436548208</v>
+        <v>1265.738892258509</v>
       </c>
       <c r="W38" t="n">
-        <v>1128.026436548208</v>
+        <v>860.8834376695419</v>
       </c>
       <c r="X38" t="n">
-        <v>708.8839731275193</v>
+        <v>441.7409742488526</v>
       </c>
       <c r="Y38" t="n">
-        <v>708.8839731275193</v>
+        <v>33.45485054850598</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H39" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I39" t="n">
-        <v>83.769371087529</v>
+        <v>83.76937108752901</v>
       </c>
       <c r="J39" t="n">
         <v>474.8738748284774</v>
       </c>
       <c r="K39" t="n">
-        <v>588.6118936739097</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L39" t="n">
-        <v>741.5466961549138</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M39" t="n">
-        <v>920.0143971816303</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N39" t="n">
-        <v>1103.205607207306</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O39" t="n">
-        <v>1270.789775072916</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P39" t="n">
-        <v>1405.290844266289</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q39" t="n">
         <v>1511.8379027716</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>375.1506815910436</v>
+        <v>619.1428009967993</v>
       </c>
       <c r="C40" t="n">
-        <v>375.1506815910436</v>
+        <v>446.5810894800243</v>
       </c>
       <c r="D40" t="n">
-        <v>375.1506815910436</v>
+        <v>280.703096681547</v>
       </c>
       <c r="E40" t="n">
-        <v>375.1506815910436</v>
+        <v>280.703096681547</v>
       </c>
       <c r="F40" t="n">
-        <v>198.4436275527998</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="G40" t="n">
-        <v>33.45485054850597</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="H40" t="n">
-        <v>33.45485054850597</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I40" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J40" t="n">
         <v>161.7834697148434</v>
@@ -7338,19 +7338,19 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L40" t="n">
-        <v>919.1520231542092</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M40" t="n">
-        <v>1011.716877081226</v>
+        <v>1006.944496686799</v>
       </c>
       <c r="N40" t="n">
-        <v>1102.08074567448</v>
+        <v>1097.308365280052</v>
       </c>
       <c r="O40" t="n">
-        <v>1185.546404136305</v>
+        <v>1180.774023741878</v>
       </c>
       <c r="P40" t="n">
-        <v>1599.550179674067</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q40" t="n">
         <v>1667.182735391305</v>
@@ -7362,22 +7362,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T40" t="n">
-        <v>1439.952402041478</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="U40" t="n">
-        <v>1161.552264820213</v>
+        <v>1151.037253290152</v>
       </c>
       <c r="V40" t="n">
-        <v>874.5967566906438</v>
+        <v>1082.987824129495</v>
       </c>
       <c r="W40" t="n">
-        <v>602.5703522769354</v>
+        <v>810.9614197157864</v>
       </c>
       <c r="X40" t="n">
-        <v>602.5703522769354</v>
+        <v>810.9614197157864</v>
       </c>
       <c r="Y40" t="n">
-        <v>375.1506815910436</v>
+        <v>810.9614197157864</v>
       </c>
     </row>
     <row r="41">
@@ -7408,19 +7408,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I41" t="n">
-        <v>83.79828774524239</v>
+        <v>83.7982877452425</v>
       </c>
       <c r="J41" t="n">
-        <v>195.5292216073329</v>
+        <v>195.529221607333</v>
       </c>
       <c r="K41" t="n">
-        <v>362.9849282099032</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L41" t="n">
-        <v>570.7285396968689</v>
+        <v>570.728539696869</v>
       </c>
       <c r="M41" t="n">
-        <v>801.8833353847205</v>
+        <v>801.8833353847206</v>
       </c>
       <c r="N41" t="n">
         <v>1036.7784573317</v>
@@ -7438,25 +7438,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S41" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T41" t="n">
-        <v>1458.555008901416</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U41" t="n">
-        <v>1199.440159488164</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="V41" t="n">
-        <v>1199.440159488164</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="W41" t="n">
-        <v>1199.440159488164</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="X41" t="n">
-        <v>1199.440159488164</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="Y41" t="n">
-        <v>791.1540357878172</v>
+        <v>708.8839731275193</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352459</v>
       </c>
       <c r="C42" t="n">
-        <v>425.5107626718881</v>
+        <v>425.5107626718882</v>
       </c>
       <c r="D42" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184415</v>
       </c>
       <c r="E42" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453952</v>
       </c>
       <c r="F42" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615568</v>
       </c>
       <c r="G42" t="n">
         <v>68.24978812594551</v>
@@ -7490,25 +7490,25 @@
         <v>83.76937108752902</v>
       </c>
       <c r="J42" t="n">
-        <v>474.8738748284774</v>
+        <v>150.3155498622651</v>
       </c>
       <c r="K42" t="n">
-        <v>605.2485493631991</v>
+        <v>264.0535687076974</v>
       </c>
       <c r="L42" t="n">
-        <v>758.1833518442032</v>
+        <v>416.9883711887014</v>
       </c>
       <c r="M42" t="n">
-        <v>936.6510528709197</v>
+        <v>595.456072215418</v>
       </c>
       <c r="N42" t="n">
-        <v>1119.842262896595</v>
+        <v>778.6472822410933</v>
       </c>
       <c r="O42" t="n">
-        <v>1287.426430762205</v>
+        <v>946.2314501067034</v>
       </c>
       <c r="P42" t="n">
-        <v>1421.927499955578</v>
+        <v>1097.834127233839</v>
       </c>
       <c r="Q42" t="n">
         <v>1511.8379027716</v>
@@ -7520,7 +7520,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T42" t="n">
-        <v>1495.353879029496</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U42" t="n">
         <v>1319.064612101715</v>
@@ -7529,13 +7529,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W42" t="n">
-        <v>934.6243398969082</v>
+        <v>934.6243398969084</v>
       </c>
       <c r="X42" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357883</v>
       </c>
       <c r="Y42" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150091</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>371.8945548637583</v>
+        <v>1088.435001382335</v>
       </c>
       <c r="C43" t="n">
-        <v>199.3328433469833</v>
+        <v>915.8732898655595</v>
       </c>
       <c r="D43" t="n">
-        <v>33.45485054850599</v>
+        <v>749.9952970670822</v>
       </c>
       <c r="E43" t="n">
-        <v>33.45485054850599</v>
+        <v>580.2372933178194</v>
       </c>
       <c r="F43" t="n">
-        <v>33.45485054850599</v>
+        <v>403.5302392795757</v>
       </c>
       <c r="G43" t="n">
-        <v>33.45485054850599</v>
+        <v>238.5414622752818</v>
       </c>
       <c r="H43" t="n">
-        <v>33.45485054850599</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I43" t="n">
         <v>33.45485054850599</v>
@@ -7599,22 +7599,22 @@
         <v>1524.001055161996</v>
       </c>
       <c r="T43" t="n">
-        <v>1280.695918248114</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="U43" t="n">
-        <v>1002.295781026849</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="V43" t="n">
-        <v>715.3402728972799</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="W43" t="n">
-        <v>715.3402728972799</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="X43" t="n">
-        <v>715.3402728972799</v>
+        <v>1507.673290787214</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.7131735827454</v>
+        <v>1280.253620101322</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>308.8293076224172</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="C44" t="n">
-        <v>308.8293076224172</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="D44" t="n">
-        <v>308.8293076224172</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="E44" t="n">
-        <v>308.8293076224172</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="F44" t="n">
-        <v>308.8293076224172</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G44" t="n">
         <v>308.8293076224172</v>
       </c>
       <c r="H44" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I44" t="n">
-        <v>83.79828774524235</v>
+        <v>83.79828774524185</v>
       </c>
       <c r="J44" t="n">
-        <v>195.5292216073329</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K44" t="n">
-        <v>362.9849282099032</v>
+        <v>362.9849282099026</v>
       </c>
       <c r="L44" t="n">
-        <v>570.7285396968689</v>
+        <v>570.7285396968683</v>
       </c>
       <c r="M44" t="n">
-        <v>801.8833353847206</v>
+        <v>801.88333538472</v>
       </c>
       <c r="N44" t="n">
         <v>1036.7784573317</v>
@@ -7666,34 +7666,34 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P44" t="n">
-        <v>1447.88852771026</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q44" t="n">
-        <v>1590.048899840628</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R44" t="n">
-        <v>1672.7425274253</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S44" t="n">
         <v>1619.698045908998</v>
       </c>
       <c r="T44" t="n">
-        <v>1405.510527385115</v>
+        <v>1405.510527385114</v>
       </c>
       <c r="U44" t="n">
-        <v>1146.395677971863</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="V44" t="n">
-        <v>783.778727905689</v>
+        <v>783.7787279056884</v>
       </c>
       <c r="W44" t="n">
-        <v>378.9232733167223</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="X44" t="n">
-        <v>378.9232733167223</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="Y44" t="n">
-        <v>308.8293076224172</v>
+        <v>708.8839731275193</v>
       </c>
     </row>
     <row r="45">
@@ -7703,61 +7703,61 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>531.9672238352459</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C45" t="n">
-        <v>425.5107626718882</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D45" t="n">
-        <v>330.4204738184415</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E45" t="n">
-        <v>236.3000591453952</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F45" t="n">
-        <v>152.9162207615568</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G45" t="n">
-        <v>68.2497881259456</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H45" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I45" t="n">
-        <v>83.76937108752904</v>
+        <v>83.76937108752901</v>
       </c>
       <c r="J45" t="n">
         <v>474.8738748284774</v>
       </c>
       <c r="K45" t="n">
-        <v>588.6118936739097</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L45" t="n">
-        <v>741.5466961549138</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M45" t="n">
-        <v>920.0143971816303</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N45" t="n">
-        <v>1103.205607207306</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O45" t="n">
-        <v>1270.789775072916</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P45" t="n">
-        <v>1405.290844266289</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q45" t="n">
-        <v>1511.837902771601</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R45" t="n">
-        <v>1672.7425274253</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S45" t="n">
         <v>1622.635830272358</v>
       </c>
       <c r="T45" t="n">
-        <v>1495.353879029497</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U45" t="n">
         <v>1319.064612101715</v>
@@ -7766,13 +7766,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W45" t="n">
-        <v>934.6243398969084</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X45" t="n">
-        <v>779.7569041357883</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y45" t="n">
-        <v>653.2711249150091</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1045.22692831344</v>
+        <v>1088.435001382335</v>
       </c>
       <c r="C46" t="n">
-        <v>872.6652167966648</v>
+        <v>915.8732898655595</v>
       </c>
       <c r="D46" t="n">
-        <v>706.7872239981875</v>
+        <v>749.9952970670822</v>
       </c>
       <c r="E46" t="n">
-        <v>537.0292202489247</v>
+        <v>580.2372933178194</v>
       </c>
       <c r="F46" t="n">
         <v>403.5302392795757</v>
@@ -7803,7 +7803,7 @@
         <v>103.9960426433032</v>
       </c>
       <c r="I46" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J46" t="n">
         <v>161.7834697148434</v>
@@ -7812,46 +7812,46 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L46" t="n">
-        <v>919.1520231542095</v>
+        <v>769.1447895942085</v>
       </c>
       <c r="M46" t="n">
-        <v>1029.902418385558</v>
+        <v>861.7096435212253</v>
       </c>
       <c r="N46" t="n">
-        <v>1120.266286978811</v>
+        <v>952.0735121144789</v>
       </c>
       <c r="O46" t="n">
-        <v>1203.731945440637</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P46" t="n">
-        <v>1617.735720978399</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q46" t="n">
-        <v>1667.182735391306</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R46" t="n">
-        <v>1672.7425274253</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S46" t="n">
-        <v>1524.001055161997</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T46" t="n">
-        <v>1524.001055161997</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="U46" t="n">
-        <v>1524.001055161997</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="V46" t="n">
-        <v>1237.045547032427</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="W46" t="n">
-        <v>1237.045547032427</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="X46" t="n">
-        <v>1237.045547032427</v>
+        <v>1507.673290787214</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.045547032427</v>
+        <v>1280.253620101322</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>230.4265510206584</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>230.4265510206588</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="Q2" t="n">
         <v>418.1856318563248</v>
@@ -8060,10 +8060,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="L3" t="n">
-        <v>346.95489856592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>346.9548985659196</v>
       </c>
       <c r="Q3" t="n">
         <v>418.1856318563248</v>
@@ -8142,19 +8142,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="M4" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>351.7637300692244</v>
       </c>
       <c r="P4" t="n">
-        <v>284.5951628294067</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="L5" t="n">
-        <v>230.4265510206588</v>
+        <v>230.4265510206585</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,13 +8230,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="Q5" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="L6" t="n">
-        <v>346.95489856592</v>
+        <v>346.9548985659196</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8373,25 +8373,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>231.3975509082591</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="M7" t="n">
-        <v>418.1856318563248</v>
+        <v>351.7637300692244</v>
       </c>
       <c r="N7" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>230.4265510206584</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8464,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>230.4265510206588</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="Q8" t="n">
         <v>418.1856318563248</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>346.95489856592</v>
+        <v>346.9548985659196</v>
       </c>
       <c r="Q9" t="n">
         <v>418.1856318563248</v>
@@ -8616,16 +8616,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>351.7637300692247</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>351.7637300692244</v>
       </c>
       <c r="O10" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>16.80470271645413</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>329.5063656617903</v>
       </c>
       <c r="M13" t="n">
-        <v>197.1198455416862</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>326.9089969136442</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>333.876885935289</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>68.61630566193776</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>111.4973890337532</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>303.2987441336659</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>186.0259345636059</v>
       </c>
       <c r="N15" t="n">
-        <v>233.1440055677638</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,22 +9087,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>324.6857794047928</v>
+        <v>324.6857794047927</v>
       </c>
       <c r="N16" t="n">
-        <v>326.9089969136442</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>149.9678586329901</v>
+        <v>199.3430630505372</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>16.80470271645356</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9324,22 +9324,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>177.9839075203757</v>
       </c>
       <c r="M19" t="n">
-        <v>324.6857794047925</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>326.9089969136439</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>149.9678586329899</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>16.8047027164539</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9564,7 +9564,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>177.9839075203751</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -9573,10 +9573,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>333.876885935289</v>
       </c>
       <c r="P22" t="n">
-        <v>346.0449349349545</v>
+        <v>190.1519565200415</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>16.8047027164539</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9798,22 +9798,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>177.9839075203757</v>
       </c>
       <c r="M25" t="n">
-        <v>324.6857794047925</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>326.9089969136439</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>149.9678586329899</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L27" t="n">
-        <v>256.180673129508</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>233.1440055677638</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,22 +10035,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>329.5063656617904</v>
+        <v>199.3430630505377</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>324.6857794047926</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>126.0113343546817</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>346.0449349349549</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>16.8047027164539</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>161.4879868122086</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>329.5063656617903</v>
+        <v>329.5063656617904</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -10284,10 +10284,10 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>213.465561793762</v>
+        <v>194.5224767935397</v>
       </c>
       <c r="P31" t="n">
-        <v>346.0449349349548</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>135.161044225888</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>43.13164530277481</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>177.9839075203753</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -10521,10 +10521,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>177.9839075203757</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>346.0449349349548</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10667,25 +10667,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>16.8047027164539</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>324.6857794047927</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>333.8768859352889</v>
+        <v>177.9839075203753</v>
       </c>
       <c r="P37" t="n">
-        <v>346.0449349349547</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q37" t="n">
-        <v>54.30095389762528</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>16.8047027164539</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -10986,10 +10986,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>329.5063656617903</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>324.6857794047927</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -10998,10 +10998,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>346.0449349349545</v>
+        <v>199.3430630505372</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.36923364073846</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>16.8047027164539</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>17.27435144824426</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>327.3670431532728</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>346.0449349349548</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>16.80470271645414</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11460,10 +11460,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>329.5063656617905</v>
+        <v>177.9839075203753</v>
       </c>
       <c r="M46" t="n">
-        <v>18.36923364073868</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -11472,10 +11472,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>346.044934934955</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.10297596493581</v>
+        <v>3.850942923733953</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>396.2968410319739</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
@@ -22561,10 +22561,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -22612,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22640,7 +22640,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>23.71256375599587</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -22676,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71256375599522</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22707,16 +22707,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>9.257299799537748</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22725,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>18.41015250236007</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22764,16 +22764,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>3.850942923733953</v>
       </c>
       <c r="C5" t="n">
-        <v>15.57541623208607</v>
+        <v>15.57541623208618</v>
       </c>
       <c r="D5" t="n">
-        <v>13.36505512097506</v>
+        <v>13.36505512097517</v>
       </c>
       <c r="E5" t="n">
-        <v>11.25136553696291</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>55.25085075583377</v>
       </c>
       <c r="G5" t="n">
-        <v>29.45857000304926</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22880,7 +22880,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>23.71256375599586</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -22916,7 +22916,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>23.7125637559954</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22941,22 +22941,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>98.40094074061849</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23004,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>96.50252520219422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,10 +23023,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208618</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>13.36505512097517</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -23038,10 +23038,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,22 +23074,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>26.35055379889087</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>160.9612802144682</v>
       </c>
     </row>
     <row r="9">
@@ -23117,7 +23117,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>23.71256375599542</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23153,7 +23153,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>23.71256375599586</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23178,13 +23178,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>116.631723046614</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -23193,13 +23193,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -23241,13 +23241,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>56.1530796720584</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>3.850942923733953</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208618</v>
       </c>
       <c r="D11" t="n">
-        <v>13.36505512097506</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>11.25136553696291</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>52.01625768599115</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>396.054118850051</v>
       </c>
       <c r="H11" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>256.5237009191198</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>249.2912191366517</v>
       </c>
     </row>
     <row r="12">
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>133.1999654356588</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.5162985984582917</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>70.04227288570476</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>15.57541623208607</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>348.792605818963</v>
+        <v>80.99833270933823</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.03442708396199</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H16" t="n">
         <v>133.1999654356588</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.2233158750373</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.85094292373401</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>403.8005992317821</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23749,7 +23749,7 @@
         <v>396.054118850051</v>
       </c>
       <c r="H17" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.0456433386444</v>
+        <v>134.246793727832</v>
       </c>
       <c r="U17" t="n">
         <v>256.5237009191198</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>7.433979755637182</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>133.1999654356588</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.8720855447433</v>
+        <v>134.9217118508667</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -23971,10 +23971,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>15.57541623208624</v>
+        <v>15.57541623208607</v>
       </c>
       <c r="D20" t="n">
-        <v>13.36505512097523</v>
+        <v>246.4460981809449</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -23983,7 +23983,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>78.09992671243992</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>272.6207125031721</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>69.83578017384922</v>
+        <v>58.71292667711641</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>62.32288334324036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,19 +24211,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>23.86430696915158</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>349.4429480644965</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>57.89051078904232</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>63.43446115463558</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24454,13 +24454,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>349.4429480644965</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>352.11130060044</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I28" t="n">
         <v>69.83578017384922</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.8720855447433</v>
+        <v>101.2708010898708</v>
       </c>
       <c r="U28" t="n">
-        <v>42.36181140349805</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -24666,7 +24666,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24682,22 +24682,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>15.57541623208624</v>
+        <v>15.57541623208618</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>252.4815522102253</v>
       </c>
       <c r="F29" t="n">
-        <v>408.6377993553101</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,10 +24736,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -24748,7 +24748,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>19.52866124940221</v>
       </c>
       <c r="H31" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>222.4425602825313</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>86.99452835485141</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>352.11130060044</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>133.1999654356588</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.8720855447433</v>
+        <v>89.85809806079922</v>
       </c>
       <c r="U34" t="n">
-        <v>202.9936909030011</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>103.0915399389037</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -25168,10 +25168,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>54.04038030951711</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,13 +25210,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39.03715628748509</v>
+        <v>168.2496405986926</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.3388892342509</v>
@@ -25365,10 +25365,10 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T37" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>52.51403670113842</v>
+        <v>8.571218451527926</v>
       </c>
       <c r="T38" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U38" t="n">
-        <v>76.24555151631236</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H40" t="n">
         <v>133.1999654356588</v>
       </c>
       <c r="I40" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T40" t="n">
-        <v>10.40986141476111</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>216.7170181792233</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>340.5892127463638</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>326.6610928126892</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>226.7733503888866</v>
       </c>
       <c r="Y43" t="n">
-        <v>75.03464565764369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25879,7 +25879,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>326.6610928126897</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>334.810236425981</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>42.77599233820575</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>275.6161358490523</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>226.7733503888871</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>362299.7063180716</v>
+        <v>362299.7063180715</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>362299.7063180716</v>
+        <v>362299.7063180715</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>331799.4446495678</v>
+        <v>331799.4446495677</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>331799.4446495678</v>
+        <v>331799.4446495677</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>331799.4446495677</v>
+        <v>331799.4446495678</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>331799.4446495677</v>
+        <v>331799.4446495678</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>331799.4446495677</v>
+        <v>331799.4446495678</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>331799.4446495679</v>
+        <v>331799.4446495678</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>331799.4446495678</v>
+        <v>331799.4446495677</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>331799.4446495679</v>
+        <v>331799.4446495678</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>331799.4446495678</v>
+        <v>331799.4446495677</v>
       </c>
     </row>
     <row r="15">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100700.622346703</v>
+        <v>100700.6223467029</v>
       </c>
       <c r="C2" t="n">
-        <v>100700.622346703</v>
+        <v>100700.6223467029</v>
       </c>
       <c r="D2" t="n">
-        <v>100700.622346703</v>
+        <v>100700.6223467029</v>
       </c>
       <c r="E2" t="n">
         <v>103464.9542517201</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140143.6235045872</v>
+        <v>140143.6235045871</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>109415.7614614163</v>
+        <v>109415.7614614162</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48713.33754145292</v>
+        <v>48713.33754145291</v>
       </c>
       <c r="C4" t="n">
         <v>48713.33754145291</v>
       </c>
       <c r="D4" t="n">
-        <v>48713.33754145293</v>
+        <v>48713.33754145291</v>
       </c>
       <c r="E4" t="n">
+        <v>9594.86463966044</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9594.864639660444</v>
+      </c>
+      <c r="G4" t="n">
         <v>9594.864639660447</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9594.864639660445</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9594.86463966044</v>
       </c>
       <c r="H4" t="n">
         <v>9594.864639660442</v>
       </c>
       <c r="I4" t="n">
+        <v>9594.864639660447</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9594.864639660445</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9594.864639660442</v>
+      </c>
+      <c r="L4" t="n">
         <v>9594.864639660444</v>
       </c>
-      <c r="J4" t="n">
-        <v>9594.864639660447</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>9594.864639660445</v>
+      </c>
+      <c r="N4" t="n">
         <v>9594.864639660444</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9594.864639660447</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9594.864639660447</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9594.864639660442</v>
       </c>
       <c r="O4" t="n">
         <v>9594.864639660447</v>
       </c>
       <c r="P4" t="n">
-        <v>9594.864639660447</v>
+        <v>9594.864639660445</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>59053.28641686455</v>
       </c>
       <c r="E5" t="n">
+        <v>32636.5026199642</v>
+      </c>
+      <c r="F5" t="n">
+        <v>32636.5026199642</v>
+      </c>
+      <c r="G5" t="n">
         <v>32636.50261996421</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>32636.50261996421</v>
       </c>
-      <c r="G5" t="n">
-        <v>32636.5026199642</v>
-      </c>
-      <c r="H5" t="n">
-        <v>32636.5026199642</v>
-      </c>
       <c r="I5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="J5" t="n">
         <v>32636.50261996421</v>
@@ -26499,10 +26499,10 @@
         <v>32636.5026199642</v>
       </c>
       <c r="L5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.5026199642</v>
       </c>
       <c r="M5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.5026199642</v>
       </c>
       <c r="N5" t="n">
         <v>32636.5026199642</v>
@@ -26511,7 +26511,7 @@
         <v>32636.50261996421</v>
       </c>
       <c r="P5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.5026199642</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-147209.6251162017</v>
+        <v>-147957.6368138882</v>
       </c>
       <c r="C6" t="n">
-        <v>-7066.001611614483</v>
+        <v>-7814.013309301112</v>
       </c>
       <c r="D6" t="n">
-        <v>-7066.001611614498</v>
+        <v>-7814.013309301105</v>
       </c>
       <c r="E6" t="n">
-        <v>-204509.1364032658</v>
+        <v>-205240.8873250406</v>
       </c>
       <c r="F6" t="n">
-        <v>61233.58699209546</v>
+        <v>60501.83607032071</v>
       </c>
       <c r="G6" t="n">
-        <v>61233.58699209544</v>
+        <v>60501.83607032074</v>
       </c>
       <c r="H6" t="n">
-        <v>61233.58699209541</v>
+        <v>60501.83607032071</v>
       </c>
       <c r="I6" t="n">
-        <v>61233.58699209543</v>
+        <v>60501.83607032071</v>
       </c>
       <c r="J6" t="n">
-        <v>-48182.17446932085</v>
+        <v>-48913.92539109551</v>
       </c>
       <c r="K6" t="n">
-        <v>61233.58699209543</v>
+        <v>60501.83607032073</v>
       </c>
       <c r="L6" t="n">
-        <v>61233.58699209546</v>
+        <v>60501.83607032071</v>
       </c>
       <c r="M6" t="n">
-        <v>61233.58699209548</v>
+        <v>60501.83607032069</v>
       </c>
       <c r="N6" t="n">
-        <v>61233.58699209543</v>
+        <v>60501.83607032076</v>
       </c>
       <c r="O6" t="n">
-        <v>61233.58699209546</v>
+        <v>60501.83607032072</v>
       </c>
       <c r="P6" t="n">
-        <v>61233.58699209546</v>
+        <v>60501.8360703207</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>330.7713854632871</v>
       </c>
       <c r="H3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="I3" t="n">
         <v>330.7713854632871</v>
@@ -26779,7 +26779,7 @@
         <v>330.7713854632871</v>
       </c>
       <c r="P3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632871</v>
       </c>
     </row>
     <row r="4">
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>418.1856318563247</v>
+      </c>
+      <c r="C4" t="n">
+        <v>418.1856318563247</v>
+      </c>
+      <c r="D4" t="n">
+        <v>418.1856318563247</v>
+      </c>
+      <c r="E4" t="n">
+        <v>418.1856318563247</v>
+      </c>
+      <c r="F4" t="n">
+        <v>418.1856318563247</v>
+      </c>
+      <c r="G4" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="C4" t="n">
+      <c r="H4" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="D4" t="n">
+      <c r="I4" t="n">
         <v>418.1856318563248</v>
-      </c>
-      <c r="E4" t="n">
-        <v>418.1856318563248</v>
-      </c>
-      <c r="F4" t="n">
-        <v>418.1856318563248</v>
-      </c>
-      <c r="G4" t="n">
-        <v>418.1856318563247</v>
-      </c>
-      <c r="H4" t="n">
-        <v>418.1856318563247</v>
-      </c>
-      <c r="I4" t="n">
-        <v>418.1856318563247</v>
       </c>
       <c r="J4" t="n">
         <v>418.1856318563248</v>
@@ -26819,10 +26819,10 @@
         <v>418.1856318563247</v>
       </c>
       <c r="L4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="M4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="N4" t="n">
         <v>418.1856318563247</v>
@@ -26831,7 +26831,7 @@
         <v>418.1856318563248</v>
       </c>
       <c r="P4" t="n">
-        <v>418.1856318563249</v>
+        <v>418.1856318563247</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>418.185631856325</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I20" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J20" t="n">
         <v>112.8595291536268</v>
@@ -32478,13 +32478,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L20" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M20" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N20" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O20" t="n">
         <v>224.0452553667434</v>
@@ -32496,13 +32496,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R20" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S20" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T20" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U20" t="n">
         <v>0.1063787370334189</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H21" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I21" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J21" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K21" t="n">
         <v>114.8868877226589</v>
@@ -32572,10 +32572,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R21" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S21" t="n">
         <v>13.21525299468887</v>
@@ -32584,7 +32584,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H22" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I22" t="n">
         <v>17.9375695592222</v>
@@ -32633,25 +32633,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K22" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L22" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M22" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N22" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O22" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P22" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R22" t="n">
         <v>26.81959463117078</v>
@@ -32663,7 +32663,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I44" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J44" t="n">
         <v>112.8595291536268</v>
@@ -34374,13 +34374,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L44" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M44" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N44" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O44" t="n">
         <v>224.0452553667434</v>
@@ -34392,13 +34392,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R44" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S44" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T44" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U44" t="n">
         <v>0.1063787370334189</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H45" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I45" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J45" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K45" t="n">
         <v>114.8868877226589</v>
@@ -34468,10 +34468,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R45" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S45" t="n">
         <v>13.21525299468887</v>
@@ -34480,7 +34480,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H46" t="n">
-        <v>5.303187130870411</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I46" t="n">
         <v>17.9375695592222</v>
@@ -34529,25 +34529,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K46" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L46" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M46" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N46" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O46" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P46" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R46" t="n">
         <v>26.81959463117078</v>
@@ -34559,7 +34559,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>230.4265510206584</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>230.4265510206588</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="Q2" t="n">
         <v>418.1856318563248</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="L3" t="n">
-        <v>346.95489856592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>346.9548985659196</v>
       </c>
       <c r="Q3" t="n">
         <v>418.1856318563248</v>
@@ -34856,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="M4" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>351.7637300692244</v>
       </c>
       <c r="P4" t="n">
-        <v>284.5951628294067</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="L5" t="n">
-        <v>230.4265510206588</v>
+        <v>230.4265510206585</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="Q5" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697542</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="L6" t="n">
-        <v>346.95489856592</v>
+        <v>346.9548985659196</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35093,25 +35093,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>231.3975509082591</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="M7" t="n">
-        <v>418.1856318563248</v>
+        <v>351.7637300692244</v>
       </c>
       <c r="N7" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>230.4265510206584</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35184,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>230.4265510206588</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="Q8" t="n">
         <v>418.1856318563248</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>346.95489856592</v>
+        <v>346.9548985659196</v>
       </c>
       <c r="Q9" t="n">
         <v>418.1856318563248</v>
@@ -35330,22 +35330,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>351.7637300692247</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>351.7637300692244</v>
       </c>
       <c r="O10" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -35421,19 +35421,19 @@
         <v>233.4896926139916</v>
       </c>
       <c r="N11" t="n">
-        <v>237.2677999464443</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O11" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P11" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q11" t="n">
-        <v>143.5963354852204</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R11" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>50.82274801921519</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J12" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K12" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391124</v>
       </c>
       <c r="L12" t="n">
         <v>154.4795984656607</v>
@@ -35503,13 +35503,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O12" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P12" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q12" t="n">
-        <v>107.6232914195061</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R12" t="n">
         <v>162.5299238926254</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K13" t="n">
-        <v>346.8331089915197</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L13" t="n">
-        <v>88.67926619453442</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="M13" t="n">
-        <v>290.6196979932183</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N13" t="n">
+        <v>418.1856318563247</v>
+      </c>
+      <c r="O13" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="O13" t="n">
-        <v>84.30874592103578</v>
-      </c>
       <c r="P13" t="n">
-        <v>72.14069692136991</v>
+        <v>140.7570025833077</v>
       </c>
       <c r="Q13" t="n">
-        <v>219.8381709871103</v>
+        <v>49.9464792049564</v>
       </c>
       <c r="R13" t="n">
         <v>5.615951549488944</v>
@@ -35670,7 +35670,7 @@
         <v>143.5963354852202</v>
       </c>
       <c r="R14" t="n">
-        <v>83.52891675219439</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>50.82274801921519</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J15" t="n">
-        <v>178.7157514324765</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K15" t="n">
-        <v>114.8868877226589</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="L15" t="n">
         <v>154.4795984656607</v>
       </c>
       <c r="M15" t="n">
-        <v>180.2704050774914</v>
+        <v>366.2963396410973</v>
       </c>
       <c r="N15" t="n">
-        <v>418.1856318563248</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O15" t="n">
-        <v>169.2769372379901</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P15" t="n">
         <v>135.8596658518925</v>
@@ -35749,7 +35749,7 @@
         <v>90.818588703052</v>
       </c>
       <c r="R15" t="n">
-        <v>162.5299238926254</v>
+        <v>44.17358238319139</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>129.6248678447853</v>
       </c>
       <c r="K16" t="n">
-        <v>69.29931649542308</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L16" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M16" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="N16" t="n">
-        <v>418.1856318563248</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O16" t="n">
         <v>84.30874592103601</v>
       </c>
       <c r="P16" t="n">
-        <v>222.10855555436</v>
+        <v>271.4837599719071</v>
       </c>
       <c r="Q16" t="n">
         <v>219.8381709871101</v>
@@ -35898,7 +35898,7 @@
         <v>237.2677999464441</v>
       </c>
       <c r="O17" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P17" t="n">
         <v>191.2174419853368</v>
@@ -35907,7 +35907,7 @@
         <v>143.5963354852202</v>
       </c>
       <c r="R17" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>50.82274801921518</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J18" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K18" t="n">
-        <v>131.6915904391124</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L18" t="n">
         <v>154.4795984656607</v>
@@ -35977,7 +35977,7 @@
         <v>185.041626288561</v>
       </c>
       <c r="O18" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P18" t="n">
         <v>135.8596658518925</v>
@@ -36044,22 +36044,22 @@
         <v>129.6248678447853</v>
       </c>
       <c r="K19" t="n">
-        <v>69.29931649542308</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L19" t="n">
-        <v>88.67926619453439</v>
+        <v>266.6631737149102</v>
       </c>
       <c r="M19" t="n">
-        <v>418.1856318563246</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N19" t="n">
-        <v>418.1856318563246</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O19" t="n">
-        <v>84.30874592103601</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P19" t="n">
-        <v>222.1085555543598</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q19" t="n">
         <v>219.8381709871101</v>
@@ -36117,22 +36117,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J20" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K20" t="n">
         <v>169.1471783864346</v>
       </c>
       <c r="L20" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M20" t="n">
-        <v>233.4896926139915</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N20" t="n">
-        <v>237.267799946444</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O20" t="n">
         <v>224.0452553667435</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>50.82274801921518</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J21" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K21" t="n">
-        <v>131.6915904391128</v>
+        <v>131.6915904391124</v>
       </c>
       <c r="L21" t="n">
         <v>154.4795984656607</v>
@@ -36214,7 +36214,7 @@
         <v>185.041626288561</v>
       </c>
       <c r="O21" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P21" t="n">
         <v>135.8596658518925</v>
@@ -36223,7 +36223,7 @@
         <v>90.818588703052</v>
       </c>
       <c r="R21" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,25 +36284,25 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L22" t="n">
-        <v>266.6631737149095</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M22" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N22" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O22" t="n">
-        <v>84.30874592103589</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="P22" t="n">
-        <v>418.1856318563246</v>
+        <v>262.2926534414114</v>
       </c>
       <c r="Q22" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R22" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>237.2677999464441</v>
       </c>
       <c r="O23" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P23" t="n">
         <v>191.2174419853368</v>
@@ -36381,7 +36381,7 @@
         <v>143.5963354852202</v>
       </c>
       <c r="R23" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>50.82274801921518</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J24" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K24" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L24" t="n">
         <v>154.4795984656607</v>
@@ -36451,13 +36451,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O24" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P24" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q24" t="n">
-        <v>107.6232914195059</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R24" t="n">
         <v>162.5299238926254</v>
@@ -36518,22 +36518,22 @@
         <v>129.6248678447853</v>
       </c>
       <c r="K25" t="n">
-        <v>69.29931649542308</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L25" t="n">
-        <v>88.67926619453439</v>
+        <v>266.6631737149102</v>
       </c>
       <c r="M25" t="n">
-        <v>418.1856318563246</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N25" t="n">
-        <v>418.1856318563246</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O25" t="n">
-        <v>84.30874592103601</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P25" t="n">
-        <v>222.1085555543598</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q25" t="n">
         <v>219.8381709871101</v>
@@ -36603,7 +36603,7 @@
         <v>209.8420318050158</v>
       </c>
       <c r="M26" t="n">
-        <v>233.4896926139922</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N26" t="n">
         <v>237.2677999464441</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>24.49580543289438</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J27" t="n">
-        <v>67.21836239872329</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K27" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L27" t="n">
-        <v>410.6602715951688</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M27" t="n">
         <v>180.2704050774914</v>
       </c>
       <c r="N27" t="n">
-        <v>418.1856318563248</v>
+        <v>185.041626288561</v>
       </c>
       <c r="O27" t="n">
         <v>169.2769372379901</v>
@@ -36697,7 +36697,7 @@
         <v>90.818588703052</v>
       </c>
       <c r="R27" t="n">
-        <v>44.17358238319139</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,25 +36755,25 @@
         <v>129.6248678447853</v>
       </c>
       <c r="K28" t="n">
-        <v>69.29931649542308</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L28" t="n">
+        <v>288.0223292450721</v>
+      </c>
+      <c r="M28" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="M28" t="n">
-        <v>93.49985245153209</v>
-      </c>
       <c r="N28" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O28" t="n">
-        <v>210.3200802757176</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P28" t="n">
-        <v>418.1856318563248</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q28" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R28" t="n">
         <v>5.615951549488944</v>
@@ -36855,7 +36855,7 @@
         <v>143.5963354852202</v>
       </c>
       <c r="R29" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>50.82274801921518</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J30" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K30" t="n">
-        <v>131.6915904391128</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L30" t="n">
-        <v>154.4795984656607</v>
+        <v>154.4795984656606</v>
       </c>
       <c r="M30" t="n">
         <v>180.2704050774914</v>
@@ -36931,10 +36931,10 @@
         <v>135.8596658518925</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.818588703052</v>
+        <v>252.3065755152606</v>
       </c>
       <c r="R30" t="n">
-        <v>162.5299238926254</v>
+        <v>44.17358238319139</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.17064040570464</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K31" t="n">
-        <v>69.29931649542308</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L31" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="M31" t="n">
         <v>93.49985245153209</v>
@@ -37004,10 +37004,10 @@
         <v>91.27663494268052</v>
       </c>
       <c r="O31" t="n">
-        <v>297.7743077147979</v>
+        <v>278.8312227145757</v>
       </c>
       <c r="P31" t="n">
-        <v>418.1856318563248</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q31" t="n">
         <v>219.8381709871101</v>
@@ -37077,13 +37077,13 @@
         <v>209.8420318050158</v>
       </c>
       <c r="M32" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N32" t="n">
         <v>237.2677999464441</v>
       </c>
       <c r="O32" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P32" t="n">
         <v>191.2174419853368</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>24.49580543289438</v>
+        <v>50.82274801921518</v>
       </c>
       <c r="J33" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K33" t="n">
-        <v>114.8868877226589</v>
+        <v>250.0479319485469</v>
       </c>
       <c r="L33" t="n">
-        <v>154.4795984656606</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M33" t="n">
         <v>180.2704050774914</v>
@@ -37168,10 +37168,10 @@
         <v>135.8596658518925</v>
       </c>
       <c r="Q33" t="n">
-        <v>133.9502340058268</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R33" t="n">
-        <v>162.5299238926254</v>
+        <v>44.17358238319139</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,7 +37232,7 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L34" t="n">
-        <v>88.67926619453442</v>
+        <v>266.6631737149097</v>
       </c>
       <c r="M34" t="n">
         <v>93.49985245153209</v>
@@ -37241,7 +37241,7 @@
         <v>91.27663494268052</v>
       </c>
       <c r="O34" t="n">
-        <v>262.2926534414116</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P34" t="n">
         <v>418.1856318563248</v>
@@ -37305,31 +37305,31 @@
         <v>50.85195676437968</v>
       </c>
       <c r="J35" t="n">
-        <v>112.8595291536268</v>
+        <v>112.859529153627</v>
       </c>
       <c r="K35" t="n">
-        <v>169.1471783864353</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L35" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050157</v>
       </c>
       <c r="M35" t="n">
         <v>233.4896926139916</v>
       </c>
       <c r="N35" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O35" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P35" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q35" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R35" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219348</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>50.82274801921519</v>
+        <v>50.82274801921518</v>
       </c>
       <c r="J36" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K36" t="n">
-        <v>131.6915904391128</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L36" t="n">
         <v>154.4795984656607</v>
@@ -37405,7 +37405,7 @@
         <v>135.8596658518925</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.818588703052</v>
+        <v>107.6232914195059</v>
       </c>
       <c r="R36" t="n">
         <v>162.5299238926254</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K37" t="n">
-        <v>69.29931649542308</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L37" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M37" t="n">
-        <v>418.1856318563248</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N37" t="n">
         <v>91.27663494268052</v>
       </c>
       <c r="O37" t="n">
+        <v>262.2926534414112</v>
+      </c>
+      <c r="P37" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="P37" t="n">
-        <v>418.1856318563246</v>
-      </c>
       <c r="Q37" t="n">
-        <v>104.2474331025817</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R37" t="n">
         <v>5.615951549488944</v>
@@ -37566,7 +37566,7 @@
         <v>143.5963354852202</v>
       </c>
       <c r="R38" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>395.0550542837863</v>
       </c>
       <c r="K39" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L39" t="n">
         <v>154.4795984656607</v>
@@ -37642,7 +37642,7 @@
         <v>135.8596658518925</v>
       </c>
       <c r="Q39" t="n">
-        <v>107.6232914195059</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R39" t="n">
         <v>162.5299238926254</v>
@@ -37706,10 +37706,10 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L40" t="n">
-        <v>418.1856318563247</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M40" t="n">
-        <v>93.49985245153209</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N40" t="n">
         <v>91.27663494268063</v>
@@ -37718,10 +37718,10 @@
         <v>84.30874592103601</v>
       </c>
       <c r="P40" t="n">
-        <v>418.1856318563246</v>
+        <v>271.4837599719071</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.31571284569486</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R40" t="n">
         <v>5.615951549488944</v>
@@ -37791,7 +37791,7 @@
         <v>233.4896926139916</v>
       </c>
       <c r="N41" t="n">
-        <v>237.2677999464443</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O41" t="n">
         <v>224.0452553667433</v>
@@ -37858,10 +37858,10 @@
         <v>50.82274801921519</v>
       </c>
       <c r="J42" t="n">
-        <v>395.0550542837863</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K42" t="n">
-        <v>131.6915904391128</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L42" t="n">
         <v>154.4795984656607</v>
@@ -37873,13 +37873,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O42" t="n">
-        <v>169.2769372379898</v>
+        <v>169.27693723799</v>
       </c>
       <c r="P42" t="n">
-        <v>135.8596658518925</v>
+        <v>153.1340173001367</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.818588703052</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="R42" t="n">
         <v>162.5299238926254</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J44" t="n">
         <v>112.8595291536268</v>
@@ -38028,19 +38028,19 @@
         <v>233.4896926139917</v>
       </c>
       <c r="N44" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O44" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P44" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q44" t="n">
-        <v>143.5963354852204</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R44" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>50.8227480192152</v>
+        <v>50.82274801921518</v>
       </c>
       <c r="J45" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K45" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L45" t="n">
         <v>154.4795984656607</v>
@@ -38110,13 +38110,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O45" t="n">
-        <v>169.2769372379901</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P45" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q45" t="n">
-        <v>107.6232914195061</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R45" t="n">
         <v>162.5299238926254</v>
@@ -38180,25 +38180,25 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L46" t="n">
-        <v>418.1856318563249</v>
+        <v>266.6631737149097</v>
       </c>
       <c r="M46" t="n">
-        <v>111.8690860922708</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N46" t="n">
-        <v>91.27663494268063</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O46" t="n">
-        <v>84.30874592103601</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P46" t="n">
-        <v>418.185631856325</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R46" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
